--- a/lab-1/SEE-lab-1.xlsx
+++ b/lab-1/SEE-lab-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="209">
   <si>
     <t>N</t>
   </si>
@@ -629,6 +629,21 @@
   </si>
   <si>
     <t>Изменения цветовой темы интерфейса</t>
+  </si>
+  <si>
+    <t>Меню основное на главной странице</t>
+  </si>
+  <si>
+    <t>Кнопка подъём в начало на главной странице</t>
+  </si>
+  <si>
+    <t>Карточки коллекций на главной странице</t>
+  </si>
+  <si>
+    <t>Карточки образов на главной странице</t>
+  </si>
+  <si>
+    <t>Картчока товара образов на главной странице</t>
   </si>
 </sst>
 </file>
@@ -636,7 +651,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1410,27 +1425,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1462,33 +1456,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -1517,28 +1490,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1558,27 +1513,9 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1642,50 +1579,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1832,15 +1819,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1856,19 +1834,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="N" dataDxfId="4"/>
-    <tableColumn id="2" name="Функционал" dataDxfId="3"/>
-    <tableColumn id="3" name="Оценка мин./чел.час" dataDxfId="2"/>
-    <tableColumn id="4" name="Оценка макс./чел.час" dataDxfId="1"/>
+    <tableColumn id="1" name="N" dataDxfId="3"/>
+    <tableColumn id="2" name="Функционал" dataDxfId="2"/>
+    <tableColumn id="3" name="Оценка мин./чел.час" dataDxfId="1"/>
+    <tableColumn id="4" name="Оценка макс./чел.час" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2161,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2192,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -2206,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="C3" s="8">
         <v>0.5</v>
@@ -2262,7 +2277,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="C7" s="8">
         <v>0.5</v>
@@ -2290,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="C9" s="8">
         <v>0.3</v>
@@ -2304,7 +2319,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2318,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2650,15 +2665,15 @@
         <v>3</v>
       </c>
       <c r="L2" s="25">
-        <f>H2</f>
+        <f t="shared" ref="L2:N3" si="0">H2</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="M2" s="25">
-        <f>I2</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="N2" s="25">
-        <f>J2</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2685,15 +2700,15 @@
         <v>2</v>
       </c>
       <c r="H3" s="25">
-        <f t="shared" ref="H3:H22" si="0">(G3+4*E3+F3)/6</f>
+        <f t="shared" ref="H3:H22" si="1">(G3+4*E3+F3)/6</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="I3" s="25">
-        <f t="shared" ref="I3:I22" si="1">(G3-F3)/6</f>
+        <f t="shared" ref="I3:I22" si="2">(G3-F3)/6</f>
         <v>0.25</v>
       </c>
       <c r="J3" s="25">
-        <f t="shared" ref="J3:J22" si="2">I3*I3</f>
+        <f t="shared" ref="J3:J22" si="3">I3*I3</f>
         <v>6.25E-2</v>
       </c>
       <c r="K3">
@@ -2701,15 +2716,15 @@
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f>H3</f>
+        <f t="shared" si="0"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="M3" s="25">
-        <f>I3</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="N3" s="25">
-        <f>J3</f>
+        <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -2736,15 +2751,15 @@
         <v>2</v>
       </c>
       <c r="H4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0833333333333333</v>
       </c>
       <c r="I4" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="J4" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -2771,15 +2786,15 @@
         <v>4</v>
       </c>
       <c r="H5" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="I5" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J5" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2808,15 +2823,15 @@
         <v>6</v>
       </c>
       <c r="H6" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="I6" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -2834,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E22" si="3">D7*1.5</f>
+        <f t="shared" ref="E7:E22" si="4">D7*1.5</f>
         <v>1.5</v>
       </c>
       <c r="F7">
@@ -2842,19 +2857,19 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G22" si="4">E7*2</f>
+        <f t="shared" ref="G7:G22" si="5">E7*2</f>
         <v>3</v>
       </c>
       <c r="H7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5833333333333333</v>
       </c>
       <c r="I7" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="J7" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -2872,27 +2887,27 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F22" si="6">C8</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J8" s="25">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F22" si="5">C8</f>
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H8" s="25">
-        <f t="shared" si="0"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I8" s="25">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="2"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -2910,27 +2925,27 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="J9" s="25">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H9" s="25">
-        <f t="shared" si="0"/>
-        <v>1.55</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="2"/>
         <v>0.20250000000000001</v>
       </c>
     </row>
@@ -2948,27 +2963,27 @@
         <v>2</v>
       </c>
       <c r="E10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J10" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I10" s="25">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="2"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -2986,27 +3001,27 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J11" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H11" s="25">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I11" s="25">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="2"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3024,27 +3039,27 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J12" s="25">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H12" s="25">
-        <f t="shared" si="0"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I12" s="25">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J12" s="25">
-        <f t="shared" si="2"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -3062,27 +3077,27 @@
         <v>2</v>
       </c>
       <c r="E13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J13" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H13" s="25">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I13" s="25">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" si="2"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3100,27 +3115,27 @@
         <v>2</v>
       </c>
       <c r="E14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J14" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="0"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I14" s="25">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="2"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3138,27 +3153,27 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J15" s="25">
         <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H15" s="25">
-        <f t="shared" si="0"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I15" s="25">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" si="2"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -3176,27 +3191,27 @@
         <v>3</v>
       </c>
       <c r="E16">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="1"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J16" s="25">
         <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H16" s="25">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I16" s="25">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" si="2"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
@@ -3214,27 +3229,27 @@
         <v>5</v>
       </c>
       <c r="E17">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="25">
         <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="H17" s="25">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I17" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K17">
@@ -3242,15 +3257,15 @@
         <v>5</v>
       </c>
       <c r="L17" s="25">
-        <f>H17</f>
+        <f t="shared" ref="L17:N22" si="7">H17</f>
         <v>8</v>
       </c>
       <c r="M17" s="25">
-        <f>I17</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="N17" s="25">
-        <f>J17</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -3268,43 +3283,43 @@
         <v>4</v>
       </c>
       <c r="E18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J18" s="25">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="H18" s="25">
-        <f t="shared" si="0"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K22" si="8">D18</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" si="7"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="I18" s="25">
-        <f t="shared" si="1"/>
+      <c r="M18" s="25">
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J18" s="25">
-        <f t="shared" si="2"/>
-        <v>2.7777777777777781</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:L22" si="6">D18</f>
-        <v>4</v>
-      </c>
-      <c r="L18" s="25">
-        <f>H18</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="M18" s="25">
-        <f>I18</f>
-        <v>1.6666666666666667</v>
-      </c>
       <c r="N18" s="25">
-        <f>J18</f>
+        <f t="shared" si="7"/>
         <v>2.7777777777777781</v>
       </c>
     </row>
@@ -3322,43 +3337,43 @@
         <v>8</v>
       </c>
       <c r="E19">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="1"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J19" s="25">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="H19" s="25">
-        <f t="shared" si="0"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" si="7"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="I19" s="25">
-        <f t="shared" si="1"/>
+      <c r="M19" s="25">
+        <f t="shared" si="7"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J19" s="25">
-        <f t="shared" si="2"/>
-        <v>11.111111111111112</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="L19" s="25">
-        <f>H19</f>
-        <v>12.666666666666666</v>
-      </c>
-      <c r="M19" s="25">
-        <f>I19</f>
-        <v>3.3333333333333335</v>
-      </c>
       <c r="N19" s="25">
-        <f>J19</f>
+        <f t="shared" si="7"/>
         <v>11.111111111111112</v>
       </c>
     </row>
@@ -3376,27 +3391,27 @@
         <v>16</v>
       </c>
       <c r="E20">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="1"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J20" s="25">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="H20" s="25">
-        <f t="shared" si="0"/>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="I20" s="25">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="2"/>
         <v>44.44444444444445</v>
       </c>
       <c r="K20">
@@ -3404,15 +3419,15 @@
         <v>16</v>
       </c>
       <c r="L20" s="25">
-        <f>H20</f>
+        <f t="shared" si="7"/>
         <v>25.333333333333332</v>
       </c>
       <c r="M20" s="25">
-        <f>I20</f>
+        <f t="shared" si="7"/>
         <v>6.666666666666667</v>
       </c>
       <c r="N20" s="25">
-        <f>J20</f>
+        <f t="shared" si="7"/>
         <v>44.44444444444445</v>
       </c>
     </row>
@@ -3430,43 +3445,43 @@
         <v>4</v>
       </c>
       <c r="E21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="1"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J21" s="25">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="0"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="7"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="I21" s="25">
-        <f t="shared" si="1"/>
+      <c r="M21" s="25">
+        <f t="shared" si="7"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J21" s="25">
-        <f t="shared" si="2"/>
-        <v>2.7777777777777781</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="L21" s="25">
-        <f>H21</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="M21" s="25">
-        <f>I21</f>
-        <v>1.6666666666666667</v>
-      </c>
       <c r="N21" s="25">
-        <f>J21</f>
+        <f t="shared" si="7"/>
         <v>2.7777777777777781</v>
       </c>
     </row>
@@ -3484,43 +3499,43 @@
         <v>2</v>
       </c>
       <c r="E22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I22" s="25">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J22" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="25">
-        <f t="shared" si="0"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="7"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="I22" s="25">
-        <f t="shared" si="1"/>
+      <c r="M22" s="25">
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J22" s="25">
-        <f t="shared" si="2"/>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="25">
-        <f>H22</f>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="M22" s="25">
-        <f>I22</f>
-        <v>0.83333333333333337</v>
-      </c>
       <c r="N22" s="25">
-        <f>J22</f>
+        <f t="shared" si="7"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3541,28 +3556,28 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
-        <f t="shared" ref="E23:H23" si="7">SUM(H2:H22)</f>
+        <f t="shared" ref="H23" si="9">SUM(H2:H22)</f>
         <v>96.716666666666669</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="27">
-        <f t="shared" ref="J23:N23" si="8">SUM(J2:J22)</f>
+        <f t="shared" ref="J23:N23" si="10">SUM(J2:J22)</f>
         <v>72.577500000000001</v>
       </c>
       <c r="K23" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="L23" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65.083333333333329</v>
       </c>
       <c r="M23" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.916666666666668</v>
       </c>
       <c r="N23" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66.118055555555557</v>
       </c>
     </row>
@@ -3718,61 +3733,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="153"/>
+      <c r="F1" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="153"/>
       <c r="I1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="N1" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="47" t="s">
         <v>62</v>
       </c>
       <c r="I2" s="17">
@@ -3798,25 +3813,25 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="48">
         <v>3</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="48">
         <v>4</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="48">
         <v>5</v>
       </c>
       <c r="I3" s="18">
@@ -3842,25 +3857,25 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="31.2">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="48">
         <v>4</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="48">
         <v>5</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="48">
         <v>7</v>
       </c>
       <c r="I4" s="17">
@@ -3886,113 +3901,113 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="31.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="48">
         <v>3</v>
       </c>
-      <c r="D5" s="55">
-        <v>1</v>
-      </c>
-      <c r="E5" s="55">
+      <c r="D5" s="48">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
         <v>4</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="48">
         <v>6</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="52">
         <v>4</v>
       </c>
-      <c r="J5" s="60" t="s">
+      <c r="J5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="58">
-        <v>1</v>
-      </c>
-      <c r="L5" s="58" t="s">
+      <c r="K5" s="51">
+        <v>1</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="58">
-        <v>1</v>
-      </c>
-      <c r="N5" s="58">
-        <v>1</v>
-      </c>
-      <c r="O5" s="58" t="s">
+      <c r="M5" s="51">
+        <v>1</v>
+      </c>
+      <c r="N5" s="51">
+        <v>1</v>
+      </c>
+      <c r="O5" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="31.2">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="48">
         <v>7</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="48">
         <v>19</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="48">
         <v>10</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="48">
         <v>15</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="49">
         <v>5</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="58">
-        <v>1</v>
-      </c>
-      <c r="L6" s="58" t="s">
+      <c r="K6" s="51">
+        <v>1</v>
+      </c>
+      <c r="L6" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="58">
-        <v>1</v>
-      </c>
-      <c r="N6" s="58">
-        <v>1</v>
-      </c>
-      <c r="O6" s="58" t="s">
+      <c r="M6" s="51">
+        <v>1</v>
+      </c>
+      <c r="N6" s="51">
+        <v>1</v>
+      </c>
+      <c r="O6" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="31.2">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="48">
         <v>5</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="48">
         <v>20</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="48">
         <v>7</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="48">
         <v>10</v>
       </c>
       <c r="I7" s="18">
@@ -4018,224 +4033,224 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="31.2">
-      <c r="I8" s="56">
+      <c r="I8" s="49">
         <v>7</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="58">
-        <v>1</v>
-      </c>
-      <c r="L8" s="58" t="s">
+      <c r="K8" s="51">
+        <v>1</v>
+      </c>
+      <c r="L8" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="58">
-        <v>1</v>
-      </c>
-      <c r="N8" s="58">
-        <v>1</v>
-      </c>
-      <c r="O8" s="58" t="s">
+      <c r="M8" s="51">
+        <v>1</v>
+      </c>
+      <c r="N8" s="51">
+        <v>1</v>
+      </c>
+      <c r="O8" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="31.2">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="153"/>
+      <c r="D9" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="153"/>
+      <c r="F9" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="I9" s="59">
+      <c r="G9" s="153"/>
+      <c r="I9" s="52">
         <v>8</v>
       </c>
-      <c r="J9" s="60" t="s">
+      <c r="J9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="58">
-        <v>1</v>
-      </c>
-      <c r="L9" s="58" t="s">
+      <c r="K9" s="51">
+        <v>1</v>
+      </c>
+      <c r="L9" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="58">
-        <v>1</v>
-      </c>
-      <c r="N9" s="58">
-        <v>1</v>
-      </c>
-      <c r="O9" s="58" t="s">
+      <c r="M9" s="51">
+        <v>1</v>
+      </c>
+      <c r="N9" s="51">
+        <v>1</v>
+      </c>
+      <c r="O9" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.2">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="153"/>
+      <c r="B10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="49">
         <v>9</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="58">
-        <v>1</v>
-      </c>
-      <c r="L10" s="58" t="s">
+      <c r="K10" s="51">
+        <v>1</v>
+      </c>
+      <c r="L10" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="58">
-        <v>1</v>
-      </c>
-      <c r="N10" s="58">
-        <v>1</v>
-      </c>
-      <c r="O10" s="58" t="s">
+      <c r="M10" s="51">
+        <v>1</v>
+      </c>
+      <c r="N10" s="51">
+        <v>1</v>
+      </c>
+      <c r="O10" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="31.2">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="48">
         <v>4</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="48">
         <v>3</v>
       </c>
-      <c r="D11" s="55">
-        <v>1</v>
-      </c>
-      <c r="E11" s="55">
+      <c r="D11" s="48">
+        <v>1</v>
+      </c>
+      <c r="E11" s="48">
         <v>4</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="48">
         <v>0</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="48">
         <v>5</v>
       </c>
       <c r="H11">
         <f>B11*C11+D11*E11+F11*G11</f>
         <v>16</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I11" s="52">
         <v>10</v>
       </c>
-      <c r="J11" s="60" t="s">
+      <c r="J11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="58">
-        <v>1</v>
-      </c>
-      <c r="L11" s="58" t="s">
+      <c r="K11" s="51">
+        <v>1</v>
+      </c>
+      <c r="L11" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="58">
-        <v>1</v>
-      </c>
-      <c r="N11" s="58">
-        <v>1</v>
-      </c>
-      <c r="O11" s="58" t="s">
+      <c r="M11" s="51">
+        <v>1</v>
+      </c>
+      <c r="N11" s="51">
+        <v>1</v>
+      </c>
+      <c r="O11" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="31.2">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="48">
         <v>4</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="48">
         <v>4</v>
       </c>
-      <c r="D12" s="55">
-        <v>1</v>
-      </c>
-      <c r="E12" s="55">
+      <c r="D12" s="48">
+        <v>1</v>
+      </c>
+      <c r="E12" s="48">
         <v>5</v>
       </c>
-      <c r="F12" s="55">
-        <v>1</v>
-      </c>
-      <c r="G12" s="55">
+      <c r="F12" s="48">
+        <v>1</v>
+      </c>
+      <c r="G12" s="48">
         <v>7</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H15" si="0">B12*C12+D12*E12+F12*G12</f>
         <v>28</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="49">
         <v>11</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="58">
-        <v>1</v>
-      </c>
-      <c r="L12" s="58" t="s">
+      <c r="K12" s="51">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="58">
-        <v>1</v>
-      </c>
-      <c r="N12" s="58">
-        <v>1</v>
-      </c>
-      <c r="O12" s="58" t="s">
+      <c r="M12" s="51">
+        <v>1</v>
+      </c>
+      <c r="N12" s="51">
+        <v>1</v>
+      </c>
+      <c r="O12" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="48">
         <v>3</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="48">
         <v>3</v>
       </c>
-      <c r="D13" s="55">
-        <v>1</v>
-      </c>
-      <c r="E13" s="55">
+      <c r="D13" s="48">
+        <v>1</v>
+      </c>
+      <c r="E13" s="48">
         <v>4</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="48">
         <v>2</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="48">
         <v>6</v>
       </c>
       <c r="H13">
@@ -4265,98 +4280,98 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="48">
         <v>7</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="48">
         <v>7</v>
       </c>
-      <c r="D14" s="55">
-        <v>1</v>
-      </c>
-      <c r="E14" s="55">
+      <c r="D14" s="48">
+        <v>1</v>
+      </c>
+      <c r="E14" s="48">
         <v>10</v>
       </c>
-      <c r="F14" s="55">
-        <v>1</v>
-      </c>
-      <c r="G14" s="55">
+      <c r="F14" s="48">
+        <v>1</v>
+      </c>
+      <c r="G14" s="48">
         <v>15</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="49">
         <v>13</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="58">
-        <v>1</v>
-      </c>
-      <c r="L14" s="58" t="s">
+      <c r="K14" s="51">
+        <v>1</v>
+      </c>
+      <c r="L14" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="58">
-        <v>1</v>
-      </c>
-      <c r="N14" s="58">
-        <v>1</v>
-      </c>
-      <c r="O14" s="58" t="s">
+      <c r="M14" s="51">
+        <v>1</v>
+      </c>
+      <c r="N14" s="51">
+        <v>1</v>
+      </c>
+      <c r="O14" s="51" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="55">
-        <v>1</v>
-      </c>
-      <c r="C15" s="55">
+      <c r="B15" s="48">
+        <v>1</v>
+      </c>
+      <c r="C15" s="48">
         <v>5</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="48">
         <v>2</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="48">
         <v>7</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="48">
         <v>0</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="48">
         <v>10</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I15" s="59">
+      <c r="I15" s="52">
         <v>14</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="51">
         <v>2</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="51">
         <v>2</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="51">
         <v>2</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="51" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4431,25 +4446,25 @@
         <f>H16*H17</f>
         <v>124.74000000000001</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="49">
         <v>17</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="58">
-        <v>1</v>
-      </c>
-      <c r="L18" s="58" t="s">
+      <c r="K18" s="51">
+        <v>1</v>
+      </c>
+      <c r="L18" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="58">
-        <v>1</v>
-      </c>
-      <c r="N18" s="58">
-        <v>1</v>
-      </c>
-      <c r="O18" s="58" t="s">
+      <c r="M18" s="51">
+        <v>1</v>
+      </c>
+      <c r="N18" s="51">
+        <v>1</v>
+      </c>
+      <c r="O18" s="51" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4563,14 +4578,14 @@
       <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="I24" s="75" t="s">
+      <c r="I24" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="L24" s="75" t="s">
+      <c r="J24" s="143"/>
+      <c r="L24" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="M24" s="76"/>
+      <c r="M24" s="143"/>
     </row>
     <row r="25" spans="1:15" ht="15.6">
       <c r="A25" s="36" t="s">
@@ -4579,16 +4594,16 @@
       <c r="B25" s="37">
         <v>1</v>
       </c>
-      <c r="I25" s="77" t="s">
+      <c r="I25" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="78">
+      <c r="J25" s="64">
         <v>1.24</v>
       </c>
-      <c r="L25" s="77" t="s">
+      <c r="L25" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="78">
+      <c r="M25" s="64">
         <v>1</v>
       </c>
     </row>
@@ -4599,16 +4614,16 @@
       <c r="B26" s="37">
         <v>1</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="64">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="M26" s="78">
+      <c r="M26" s="64">
         <v>0.87</v>
       </c>
     </row>
@@ -4619,16 +4634,16 @@
       <c r="B27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="77" t="s">
+      <c r="I27" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="78">
+      <c r="J27" s="64">
         <v>7.07</v>
       </c>
-      <c r="L27" s="77" t="s">
+      <c r="L27" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="78">
+      <c r="M27" s="64">
         <v>0.6</v>
       </c>
     </row>
@@ -4639,16 +4654,16 @@
       <c r="B28" s="37">
         <v>0</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="78">
+      <c r="J28" s="64">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L28" s="77" t="s">
+      <c r="L28" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="78">
+      <c r="M28" s="64">
         <v>0.95</v>
       </c>
     </row>
@@ -4659,16 +4674,16 @@
       <c r="B29" s="37">
         <v>2</v>
       </c>
-      <c r="I29" s="79" t="s">
+      <c r="I29" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="66">
         <v>6.24</v>
       </c>
-      <c r="L29" s="77" t="s">
+      <c r="L29" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="78">
+      <c r="M29" s="64">
         <v>1</v>
       </c>
     </row>
@@ -4679,10 +4694,10 @@
       <c r="B30" s="37">
         <v>1</v>
       </c>
-      <c r="L30" s="77" t="s">
+      <c r="L30" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="M30" s="78">
+      <c r="M30" s="64">
         <v>0.73</v>
       </c>
     </row>
@@ -4693,13 +4708,13 @@
       <c r="B31" s="37">
         <v>1</v>
       </c>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="83" t="s">
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="80">
+      <c r="M31" s="66">
         <v>1</v>
       </c>
     </row>
@@ -4714,91 +4729,91 @@
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1"/>
     <row r="34" spans="1:11" ht="15.6">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62" t="s">
+      <c r="A34" s="54"/>
+      <c r="B34" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="56">
         <v>104.88</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="72"/>
-      <c r="G34" s="69">
+      <c r="F34" s="141"/>
+      <c r="G34" s="60">
         <f>H18</f>
         <v>124.74000000000001</v>
       </c>
-      <c r="I34" s="73"/>
-      <c r="J34" s="84" t="s">
+      <c r="I34" s="61"/>
+      <c r="J34" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="85">
+      <c r="K34" s="71">
         <f>SUM(J25:J29)*0.01 + 0.91</f>
         <v>1.0868</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="64">
+      <c r="B35" s="145"/>
+      <c r="C35" s="57">
         <v>47</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="69">
+      <c r="F35" s="152"/>
+      <c r="G35" s="60">
         <v>47</v>
       </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="84" t="s">
+      <c r="I35" s="61"/>
+      <c r="J35" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="K35" s="85">
+      <c r="K35" s="71">
         <f>PRODUCT(M25:M31) * POWER(G36,K34) * 2.94</f>
         <v>7.275105384785661</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A36" s="65"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="66">
+      <c r="C36" s="59">
         <v>4.92936</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="72"/>
-      <c r="G36" s="69">
+      <c r="F36" s="141"/>
+      <c r="G36" s="60">
         <f>(G34*G35)/1000</f>
         <v>5.8627800000000008</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1"/>
     <row r="38" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="51" t="s">
+      <c r="C38" s="149"/>
+      <c r="D38" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="E38" s="150"/>
+      <c r="F38" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="151"/>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A39" s="48"/>
+      <c r="A39" s="147"/>
       <c r="B39" s="34" t="s">
         <v>61</v>
       </c>
@@ -4969,6 +4984,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="L24:M24"/>
@@ -4979,14 +5002,6 @@
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -5011,7 +5026,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="132" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="12"/>
@@ -5019,7 +5034,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="72" t="s">
         <v>118</v>
       </c>
       <c r="H1" s="40"/>
@@ -5027,39 +5042,39 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="87"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="159" t="s">
+      <c r="C2" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="159" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="159" t="s">
+      <c r="J2" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="134" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="12">
@@ -5068,33 +5083,33 @@
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88">
+      <c r="D3" s="74"/>
+      <c r="E3" s="74">
         <f>C3*B3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="161">
+      <c r="I3" s="135">
         <v>2</v>
       </c>
-      <c r="J3" s="162">
+      <c r="J3" s="136">
         <v>0</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88">
+      <c r="K3" s="74"/>
+      <c r="L3" s="74">
         <f>J3*I3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="89"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="134" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="12">
@@ -5103,33 +5118,33 @@
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74">
         <f t="shared" ref="E4:E14" si="0">C4*B4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="12" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="161">
-        <v>1</v>
-      </c>
-      <c r="J4" s="162">
+      <c r="I4" s="135">
+        <v>1</v>
+      </c>
+      <c r="J4" s="136">
         <v>3</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88">
+      <c r="K4" s="74"/>
+      <c r="L4" s="74">
         <f t="shared" ref="L4:L30" si="1">J4*I4</f>
         <v>3</v>
       </c>
-      <c r="M4" s="89"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="134" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="12">
@@ -5138,202 +5153,202 @@
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88">
+      <c r="D5" s="74"/>
+      <c r="E5" s="74">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="12" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="161">
-        <v>1</v>
-      </c>
-      <c r="J5" s="162">
+      <c r="I5" s="135">
+        <v>1</v>
+      </c>
+      <c r="J5" s="136">
         <v>5</v>
       </c>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88">
+      <c r="K5" s="74"/>
+      <c r="L5" s="74">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M5" s="89"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="35"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="161">
-        <v>1</v>
-      </c>
-      <c r="J6" s="162">
+      <c r="I6" s="135">
+        <v>1</v>
+      </c>
+      <c r="J6" s="136">
         <v>0</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88">
+      <c r="K6" s="74"/>
+      <c r="L6" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="89"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="77">
         <f>SUM(E3:E5)</f>
         <v>10</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="161">
-        <v>1</v>
-      </c>
-      <c r="J7" s="162">
+      <c r="I7" s="135">
+        <v>1</v>
+      </c>
+      <c r="J7" s="136">
         <v>0</v>
       </c>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="89"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="35"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="12" t="s">
         <v>139</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="161">
+      <c r="I8" s="135">
         <v>0.5</v>
       </c>
-      <c r="J8" s="162">
-        <v>1</v>
-      </c>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88">
+      <c r="J8" s="136">
+        <v>1</v>
+      </c>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M8" s="89"/>
+      <c r="M8" s="75"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="35"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="12" t="s">
         <v>141</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="161">
+      <c r="I9" s="135">
         <v>0.5</v>
       </c>
-      <c r="J9" s="162">
+      <c r="J9" s="136">
         <v>5</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88">
+      <c r="K9" s="74"/>
+      <c r="L9" s="74">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="M9" s="89"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="1:13" ht="18">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="12" t="s">
         <v>144</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="161">
+      <c r="I10" s="135">
         <v>2</v>
       </c>
-      <c r="J10" s="162">
+      <c r="J10" s="136">
         <v>2</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88">
+      <c r="K10" s="74"/>
+      <c r="L10" s="74">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M10" s="89"/>
+      <c r="M10" s="75"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="12" t="s">
         <v>147</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="161">
-        <v>1</v>
-      </c>
-      <c r="J11" s="162">
+      <c r="I11" s="135">
+        <v>1</v>
+      </c>
+      <c r="J11" s="136">
         <v>2</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88">
+      <c r="K11" s="74"/>
+      <c r="L11" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M11" s="89"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="134" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="12">
@@ -5342,33 +5357,33 @@
       <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F12" s="88"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="12" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="161">
-        <v>1</v>
-      </c>
-      <c r="J12" s="162">
-        <v>1</v>
-      </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88">
+      <c r="I12" s="135">
+        <v>1</v>
+      </c>
+      <c r="J12" s="136">
+        <v>1</v>
+      </c>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M12" s="89"/>
+      <c r="M12" s="75"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="134" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="12">
@@ -5377,33 +5392,33 @@
       <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F13" s="88"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="12" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="161">
-        <v>1</v>
-      </c>
-      <c r="J13" s="162">
-        <v>1</v>
-      </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88">
+      <c r="I13" s="135">
+        <v>1</v>
+      </c>
+      <c r="J13" s="136">
+        <v>1</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M13" s="89"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="134" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="12">
@@ -5412,1505 +5427,1505 @@
       <c r="C14" s="12">
         <v>15</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F14" s="88"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="12" t="s">
         <v>156</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="161">
-        <v>1</v>
-      </c>
-      <c r="J14" s="162">
+      <c r="I14" s="135">
+        <v>1</v>
+      </c>
+      <c r="J14" s="136">
         <v>3</v>
       </c>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88">
+      <c r="K14" s="74"/>
+      <c r="L14" s="74">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M14" s="89"/>
+      <c r="M14" s="75"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="35"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="12" t="s">
         <v>158</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="161">
-        <v>1</v>
-      </c>
-      <c r="J15" s="162">
+      <c r="I15" s="135">
+        <v>1</v>
+      </c>
+      <c r="J15" s="136">
         <v>0</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88">
+      <c r="K15" s="74"/>
+      <c r="L15" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="89"/>
+      <c r="M15" s="75"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="77">
         <f>SUM(E12:E14)</f>
         <v>165</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="89"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="75"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="35"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="93" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="74">
         <f>SUM(L3:L15)</f>
         <v>22</v>
       </c>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="89"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="35"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="93" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="91">
+      <c r="J18" s="77">
         <f>0.6 +J17/100</f>
         <v>0.82</v>
       </c>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="89"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="35"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="89"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="35"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
     </row>
     <row r="21" spans="1:13" ht="18">
       <c r="A21" s="35"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="94" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="89"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="35"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="159" t="s">
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="159" t="s">
+      <c r="H22" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="159" t="s">
+      <c r="I22" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="159" t="s">
+      <c r="J22" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="89"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="35"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="G23" s="12" t="s">
         <v>165</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I23" s="163">
+      <c r="I23" s="137">
         <v>1.5</v>
       </c>
       <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88">
+      <c r="K23" s="74"/>
+      <c r="L23" s="74">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="M23" s="89"/>
+      <c r="M23" s="75"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="35"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="12" t="s">
         <v>167</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I24" s="163">
+      <c r="I24" s="137">
         <v>0.5</v>
       </c>
       <c r="J24" s="12">
         <v>4</v>
       </c>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88">
+      <c r="K24" s="74"/>
+      <c r="L24" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="89"/>
+      <c r="M24" s="75"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
       <c r="G25" s="12" t="s">
         <v>169</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="163">
+      <c r="I25" s="137">
         <v>1</v>
       </c>
       <c r="J25" s="12">
         <v>1</v>
       </c>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88">
+      <c r="K25" s="74"/>
+      <c r="L25" s="74">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M25" s="89"/>
+      <c r="M25" s="75"/>
     </row>
     <row r="26" spans="1:13" ht="15.6">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="154" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="100">
+      <c r="B26" s="155"/>
+      <c r="C26" s="84">
         <f>(B7+B16)*J18*J33</f>
         <v>252.55999999999997</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="12" t="s">
         <v>172</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="I26" s="163">
+      <c r="I26" s="137">
         <v>0.5</v>
       </c>
       <c r="J26" s="12">
         <v>1</v>
       </c>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88">
+      <c r="K26" s="74"/>
+      <c r="L26" s="74">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M26" s="89"/>
+      <c r="M26" s="75"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="12" t="s">
         <v>174</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="163">
+      <c r="I27" s="137">
         <v>1</v>
       </c>
       <c r="J27" s="12">
         <v>2</v>
       </c>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88">
+      <c r="K27" s="74"/>
+      <c r="L27" s="74">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M27" s="89"/>
+      <c r="M27" s="75"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="35"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="163">
+      <c r="I28" s="137">
         <v>2</v>
       </c>
       <c r="J28" s="12">
         <v>2</v>
       </c>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88">
+      <c r="K28" s="74"/>
+      <c r="L28" s="74">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M28" s="89"/>
+      <c r="M28" s="75"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="35"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="163">
+      <c r="I29" s="137">
         <v>-1</v>
       </c>
       <c r="J29" s="12">
         <v>1</v>
       </c>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88">
+      <c r="K29" s="74"/>
+      <c r="L29" s="74">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M29" s="89"/>
+      <c r="M29" s="75"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="35"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="12" t="s">
         <v>180</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="I30" s="163">
+      <c r="I30" s="137">
         <v>-1</v>
       </c>
       <c r="J30" s="12">
         <v>1</v>
       </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88">
+      <c r="K30" s="74"/>
+      <c r="L30" s="74">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M30" s="89"/>
+      <c r="M30" s="75"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="35"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="75"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="35"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="93" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="J32" s="88">
+      <c r="J32" s="74">
         <f>SUM(L23:L30)</f>
         <v>12</v>
       </c>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="89"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="75"/>
     </row>
     <row r="33" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="93" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="J33" s="91">
+      <c r="J33" s="77">
         <f>1.4 + (0.03*J32)</f>
         <v>1.7599999999999998</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="89"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="75"/>
     </row>
     <row r="34" spans="1:13" ht="13.95" customHeight="1" thickBot="1">
-      <c r="A34" s="106"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
+      <c r="A34" s="158"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
       <c r="M34" s="41"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1"/>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="154" t="s">
+      <c r="A37" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="110" t="s">
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="111"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="91"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="156" t="s">
+      <c r="B38" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="156" t="s">
+      <c r="C38" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="156" t="s">
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="H38" s="156" t="s">
+      <c r="H38" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="156" t="s">
+      <c r="I38" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="156" t="s">
+      <c r="J38" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="113"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="93"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="157" t="s">
+      <c r="A39" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="155">
-        <v>1</v>
-      </c>
-      <c r="C39" s="155">
-        <v>1</v>
-      </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112">
+      <c r="B39" s="129">
+        <v>1</v>
+      </c>
+      <c r="C39" s="129">
+        <v>1</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92">
         <f>B39*C39</f>
         <v>1</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="155" t="s">
+      <c r="F39" s="92"/>
+      <c r="G39" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="155" t="s">
+      <c r="H39" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="165">
+      <c r="I39" s="139">
         <v>2</v>
       </c>
-      <c r="J39" s="162">
+      <c r="J39" s="136">
         <v>0</v>
       </c>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112">
+      <c r="K39" s="92"/>
+      <c r="L39" s="92">
         <f>J39*I39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="113"/>
+      <c r="M39" s="93"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="157" t="s">
+      <c r="A40" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="155">
+      <c r="B40" s="129">
         <v>0</v>
       </c>
-      <c r="C40" s="155">
+      <c r="C40" s="129">
         <v>2</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112">
+      <c r="D40" s="92"/>
+      <c r="E40" s="92">
         <f t="shared" ref="E40:E50" si="2">B40*C40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="155" t="s">
+      <c r="F40" s="92"/>
+      <c r="G40" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="155" t="s">
+      <c r="H40" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="165">
-        <v>1</v>
-      </c>
-      <c r="J40" s="162">
-        <v>1</v>
-      </c>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112">
+      <c r="I40" s="139">
+        <v>1</v>
+      </c>
+      <c r="J40" s="136">
+        <v>1</v>
+      </c>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92">
         <f t="shared" ref="L40:L66" si="3">J40*I40</f>
         <v>1</v>
       </c>
-      <c r="M40" s="113"/>
+      <c r="M40" s="93"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="157" t="s">
+      <c r="A41" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="155">
+      <c r="B41" s="129">
         <v>0</v>
       </c>
-      <c r="C41" s="155">
+      <c r="C41" s="129">
         <v>3</v>
       </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112">
+      <c r="D41" s="92"/>
+      <c r="E41" s="92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="155" t="s">
+      <c r="F41" s="92"/>
+      <c r="G41" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="155" t="s">
+      <c r="H41" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="165">
-        <v>1</v>
-      </c>
-      <c r="J41" s="162">
-        <v>1</v>
-      </c>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112">
+      <c r="I41" s="139">
+        <v>1</v>
+      </c>
+      <c r="J41" s="136">
+        <v>1</v>
+      </c>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M41" s="113"/>
+      <c r="M41" s="93"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="115"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="112"/>
-      <c r="G42" s="155" t="s">
+      <c r="A42" s="95"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="155" t="s">
+      <c r="H42" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="I42" s="165">
-        <v>1</v>
-      </c>
-      <c r="J42" s="162">
-        <v>1</v>
-      </c>
-      <c r="K42" s="112"/>
-      <c r="L42" s="112">
+      <c r="I42" s="139">
+        <v>1</v>
+      </c>
+      <c r="J42" s="136">
+        <v>1</v>
+      </c>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M42" s="113"/>
+      <c r="M42" s="93"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="116">
+      <c r="B43" s="96">
         <f>SUM(E39:E41)</f>
         <v>1</v>
       </c>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="112"/>
-      <c r="F43" s="112"/>
-      <c r="G43" s="155" t="s">
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="H43" s="155" t="s">
+      <c r="H43" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="I43" s="165">
-        <v>1</v>
-      </c>
-      <c r="J43" s="162">
-        <v>1</v>
-      </c>
-      <c r="K43" s="112"/>
-      <c r="L43" s="112">
+      <c r="I43" s="139">
+        <v>1</v>
+      </c>
+      <c r="J43" s="136">
+        <v>1</v>
+      </c>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M43" s="113"/>
+      <c r="M43" s="93"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="115"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
-      <c r="F44" s="112"/>
-      <c r="G44" s="155" t="s">
+      <c r="A44" s="95"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="155" t="s">
+      <c r="H44" s="129" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="165">
+      <c r="I44" s="139">
         <v>0.5</v>
       </c>
-      <c r="J44" s="162">
-        <v>1</v>
-      </c>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112">
+      <c r="J44" s="136">
+        <v>1</v>
+      </c>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M44" s="113"/>
+      <c r="M44" s="93"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="115"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
-      <c r="G45" s="155" t="s">
+      <c r="A45" s="95"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="155" t="s">
+      <c r="H45" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="165">
+      <c r="I45" s="139">
         <v>0.5</v>
       </c>
-      <c r="J45" s="162">
+      <c r="J45" s="136">
         <v>2</v>
       </c>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112">
+      <c r="K45" s="92"/>
+      <c r="L45" s="92">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M45" s="113"/>
+      <c r="M45" s="93"/>
     </row>
     <row r="46" spans="1:13" ht="18">
-      <c r="A46" s="117" t="s">
+      <c r="A46" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="112"/>
-      <c r="F46" s="112"/>
-      <c r="G46" s="155" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="155" t="s">
+      <c r="H46" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="I46" s="165">
+      <c r="I46" s="139">
         <v>2</v>
       </c>
-      <c r="J46" s="162">
+      <c r="J46" s="136">
         <v>0</v>
       </c>
-      <c r="K46" s="112"/>
-      <c r="L46" s="112">
+      <c r="K46" s="92"/>
+      <c r="L46" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M46" s="113"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="130" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="156" t="s">
+      <c r="C47" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="155" t="s">
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="155" t="s">
+      <c r="H47" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="165">
-        <v>1</v>
-      </c>
-      <c r="J47" s="162">
+      <c r="I47" s="139">
+        <v>1</v>
+      </c>
+      <c r="J47" s="136">
         <v>0</v>
       </c>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112">
+      <c r="K47" s="92"/>
+      <c r="L47" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="113"/>
+      <c r="M47" s="93"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="157" t="s">
+      <c r="A48" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="155">
+      <c r="B48" s="129">
         <v>9</v>
       </c>
-      <c r="C48" s="155">
+      <c r="C48" s="129">
         <v>5</v>
       </c>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112">
+      <c r="D48" s="92"/>
+      <c r="E48" s="92">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F48" s="112"/>
-      <c r="G48" s="155" t="s">
+      <c r="F48" s="92"/>
+      <c r="G48" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="155" t="s">
+      <c r="H48" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="I48" s="165">
-        <v>1</v>
-      </c>
-      <c r="J48" s="162">
-        <v>1</v>
-      </c>
-      <c r="K48" s="112"/>
-      <c r="L48" s="112">
+      <c r="I48" s="139">
+        <v>1</v>
+      </c>
+      <c r="J48" s="136">
+        <v>1</v>
+      </c>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M48" s="113"/>
+      <c r="M48" s="93"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="157" t="s">
+      <c r="A49" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="155">
+      <c r="B49" s="129">
         <v>2</v>
       </c>
-      <c r="C49" s="155">
+      <c r="C49" s="129">
         <v>10</v>
       </c>
-      <c r="D49" s="112"/>
-      <c r="E49" s="112">
+      <c r="D49" s="92"/>
+      <c r="E49" s="92">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F49" s="112"/>
-      <c r="G49" s="155" t="s">
+      <c r="F49" s="92"/>
+      <c r="G49" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="155" t="s">
+      <c r="H49" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="I49" s="165">
-        <v>1</v>
-      </c>
-      <c r="J49" s="162">
+      <c r="I49" s="139">
+        <v>1</v>
+      </c>
+      <c r="J49" s="136">
         <v>0</v>
       </c>
-      <c r="K49" s="112"/>
-      <c r="L49" s="112">
+      <c r="K49" s="92"/>
+      <c r="L49" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M49" s="113"/>
+      <c r="M49" s="93"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="155">
+      <c r="B50" s="129">
         <v>2</v>
       </c>
-      <c r="C50" s="155">
+      <c r="C50" s="129">
         <v>15</v>
       </c>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112">
+      <c r="D50" s="92"/>
+      <c r="E50" s="92">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F50" s="112"/>
-      <c r="G50" s="155" t="s">
+      <c r="F50" s="92"/>
+      <c r="G50" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="155" t="s">
+      <c r="H50" s="129" t="s">
         <v>157</v>
       </c>
-      <c r="I50" s="165">
-        <v>1</v>
-      </c>
-      <c r="J50" s="162">
+      <c r="I50" s="139">
+        <v>1</v>
+      </c>
+      <c r="J50" s="136">
         <v>0</v>
       </c>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112">
+      <c r="K50" s="92"/>
+      <c r="L50" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M50" s="113"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="115"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="112"/>
-      <c r="G51" s="155" t="s">
+      <c r="A51" s="95"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="129" t="s">
         <v>158</v>
       </c>
-      <c r="H51" s="155" t="s">
+      <c r="H51" s="129" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="165">
-        <v>1</v>
-      </c>
-      <c r="J51" s="162">
+      <c r="I51" s="139">
+        <v>1</v>
+      </c>
+      <c r="J51" s="136">
         <v>0</v>
       </c>
-      <c r="K51" s="112"/>
-      <c r="L51" s="112">
+      <c r="K51" s="92"/>
+      <c r="L51" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M51" s="113"/>
+      <c r="M51" s="93"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="116">
+      <c r="B52" s="96">
         <f>SUM(E48:E50)</f>
         <v>95</v>
       </c>
-      <c r="C52" s="112"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="112"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="112"/>
-      <c r="J52" s="112"/>
-      <c r="K52" s="112"/>
-      <c r="L52" s="112"/>
-      <c r="M52" s="113"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="93"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="115"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-      <c r="G53" s="112"/>
-      <c r="H53" s="112"/>
-      <c r="I53" s="118" t="s">
+      <c r="A53" s="95"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="J53" s="112">
+      <c r="J53" s="92">
         <f>SUM(L39:L51)</f>
         <v>6.5</v>
       </c>
-      <c r="K53" s="112"/>
-      <c r="L53" s="112"/>
-      <c r="M53" s="113"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
+      <c r="M53" s="93"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="115"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="112"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="118" t="s">
+      <c r="A54" s="95"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="91">
+      <c r="J54" s="77">
         <f>0.6 +J53/100</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="K54" s="112"/>
-      <c r="L54" s="112"/>
-      <c r="M54" s="113"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
+      <c r="M54" s="93"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="115"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="113"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="93"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="115"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
-      <c r="M56" s="113"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="93"/>
     </row>
     <row r="57" spans="1:13" ht="18">
-      <c r="A57" s="115"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="119" t="s">
+      <c r="A57" s="95"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="113"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="93"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="115"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="112"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="156" t="s">
+      <c r="A58" s="95"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="156" t="s">
+      <c r="H58" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="156" t="s">
+      <c r="I58" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="J58" s="156" t="s">
+      <c r="J58" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="113"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="93"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="115"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="112"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="155" t="s">
+      <c r="A59" s="95"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="155" t="s">
+      <c r="H59" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="I59" s="164">
+      <c r="I59" s="138">
         <v>1.5</v>
       </c>
-      <c r="J59" s="155">
-        <v>1</v>
-      </c>
-      <c r="K59" s="112"/>
-      <c r="L59" s="112">
+      <c r="J59" s="129">
+        <v>1</v>
+      </c>
+      <c r="K59" s="92"/>
+      <c r="L59" s="92">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="M59" s="113"/>
+      <c r="M59" s="93"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="115"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="155" t="s">
+      <c r="A60" s="95"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="155" t="s">
+      <c r="H60" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="I60" s="164">
+      <c r="I60" s="138">
         <v>0.5</v>
       </c>
-      <c r="J60" s="155">
-        <v>1</v>
-      </c>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112">
+      <c r="J60" s="129">
+        <v>1</v>
+      </c>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M60" s="113"/>
+      <c r="M60" s="93"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="120"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="112"/>
-      <c r="G61" s="155" t="s">
+      <c r="A61" s="100"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="155" t="s">
+      <c r="H61" s="129" t="s">
         <v>170</v>
       </c>
-      <c r="I61" s="164">
-        <v>1</v>
-      </c>
-      <c r="J61" s="155">
+      <c r="I61" s="138">
+        <v>1</v>
+      </c>
+      <c r="J61" s="129">
         <v>0</v>
       </c>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112">
+      <c r="K61" s="92"/>
+      <c r="L61" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M61" s="113"/>
+      <c r="M61" s="93"/>
     </row>
     <row r="62" spans="1:13" ht="15.6">
-      <c r="A62" s="123" t="s">
+      <c r="A62" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="124"/>
-      <c r="C62" s="100">
+      <c r="B62" s="161"/>
+      <c r="C62" s="84">
         <f>(B43+B52)*J54*J69</f>
         <v>93.206400000000002</v>
       </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="155" t="s">
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="155" t="s">
+      <c r="H62" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="I62" s="164">
+      <c r="I62" s="138">
         <v>0.5</v>
       </c>
-      <c r="J62" s="155">
+      <c r="J62" s="129">
         <v>0</v>
       </c>
-      <c r="K62" s="112"/>
-      <c r="L62" s="112">
+      <c r="K62" s="92"/>
+      <c r="L62" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M62" s="113"/>
+      <c r="M62" s="93"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="125"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="112"/>
-      <c r="E63" s="112"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="155" t="s">
+      <c r="A63" s="103"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="155" t="s">
+      <c r="H63" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="164">
-        <v>1</v>
-      </c>
-      <c r="J63" s="155">
+      <c r="I63" s="138">
+        <v>1</v>
+      </c>
+      <c r="J63" s="129">
         <v>0</v>
       </c>
-      <c r="K63" s="112"/>
-      <c r="L63" s="112">
+      <c r="K63" s="92"/>
+      <c r="L63" s="92">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M63" s="113"/>
+      <c r="M63" s="93"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="115"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="112"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="112"/>
-      <c r="F64" s="112"/>
-      <c r="G64" s="155" t="s">
+      <c r="A64" s="95"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="H64" s="155" t="s">
+      <c r="H64" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="I64" s="164">
+      <c r="I64" s="138">
         <v>2</v>
       </c>
-      <c r="J64" s="155">
-        <v>1</v>
-      </c>
-      <c r="K64" s="112"/>
-      <c r="L64" s="112">
+      <c r="J64" s="129">
+        <v>1</v>
+      </c>
+      <c r="K64" s="92"/>
+      <c r="L64" s="92">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M64" s="113"/>
+      <c r="M64" s="93"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="115"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="112"/>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
-      <c r="G65" s="155" t="s">
+      <c r="A65" s="95"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="155" t="s">
+      <c r="H65" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="I65" s="164">
+      <c r="I65" s="138">
         <v>-1</v>
       </c>
-      <c r="J65" s="155">
-        <v>1</v>
-      </c>
-      <c r="K65" s="112"/>
-      <c r="L65" s="112">
+      <c r="J65" s="129">
+        <v>1</v>
+      </c>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M65" s="113"/>
+      <c r="M65" s="93"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="115"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="155" t="s">
+      <c r="A66" s="95"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="H66" s="155" t="s">
+      <c r="H66" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="I66" s="164">
+      <c r="I66" s="138">
         <v>-1</v>
       </c>
-      <c r="J66" s="155">
-        <v>1</v>
-      </c>
-      <c r="K66" s="112"/>
-      <c r="L66" s="112">
+      <c r="J66" s="129">
+        <v>1</v>
+      </c>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M66" s="113"/>
+      <c r="M66" s="93"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="115"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="112"/>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
-      <c r="G67" s="112"/>
-      <c r="H67" s="112"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="112"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="112"/>
-      <c r="M67" s="113"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="93"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="115"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="112"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
-      <c r="G68" s="112"/>
-      <c r="H68" s="112"/>
-      <c r="I68" s="118" t="s">
+      <c r="A68" s="95"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="92"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="J68" s="112">
+      <c r="J68" s="92">
         <f>SUM(L59:L66)</f>
         <v>2</v>
       </c>
-      <c r="K68" s="112"/>
-      <c r="L68" s="112"/>
-      <c r="M68" s="113"/>
+      <c r="K68" s="92"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="93"/>
     </row>
     <row r="69" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A69" s="128" t="s">
+      <c r="A69" s="162" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="129"/>
-      <c r="C69" s="112"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="112"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="112"/>
-      <c r="H69" s="112"/>
-      <c r="I69" s="118" t="s">
+      <c r="B69" s="163"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="J69" s="91">
+      <c r="J69" s="77">
         <f>1.4 + (0.03*J68)</f>
         <v>1.46</v>
       </c>
-      <c r="K69" s="112"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="113"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="93"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A70" s="130"/>
-      <c r="B70" s="131"/>
-      <c r="C70" s="132"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="132"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="132"/>
-      <c r="M70" s="133"/>
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="107"/>
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1"/>
     <row r="72" spans="1:13" ht="18">
-      <c r="A72" s="134" t="s">
+      <c r="A72" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="135"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="82"/>
-    </row>
-    <row r="73" spans="1:13" ht="28.8">
-      <c r="A73" s="136" t="s">
+      <c r="C72" s="109"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="68"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="110" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="137" t="s">
+      <c r="B73" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="138"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="74" t="s">
+      <c r="C73" s="112"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="139">
+      <c r="G73" s="113">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="28.95" customHeight="1">
-      <c r="A74" s="140">
-        <v>1</v>
-      </c>
-      <c r="B74" s="141" t="s">
+      <c r="A74" s="114">
+        <v>1</v>
+      </c>
+      <c r="B74" s="115" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="138"/>
-      <c r="D74" s="73"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="142" t="s">
+      <c r="C74" s="112"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="143">
+      <c r="G74" s="117">
         <f>G73/C62</f>
         <v>1.2874652384385621</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="43.2">
-      <c r="A75" s="144">
+    <row r="75" spans="1:13" ht="28.8">
+      <c r="A75" s="118">
         <v>2</v>
       </c>
-      <c r="B75" s="145" t="s">
+      <c r="B75" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="138"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="142" t="s">
+      <c r="C75" s="112"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="116" t="s">
         <v>192</v>
       </c>
-      <c r="G75" s="146">
+      <c r="G75" s="120">
         <f>C26*G74</f>
         <v>325.16222062004323</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="58.2" thickBot="1">
-      <c r="A76" s="144">
+    <row r="76" spans="1:13" ht="29.4" thickBot="1">
+      <c r="A76" s="118">
         <v>3</v>
       </c>
-      <c r="B76" s="145" t="s">
+      <c r="B76" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="147"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="149"/>
-    </row>
-    <row r="77" spans="1:13" ht="72">
-      <c r="A77" s="144">
+      <c r="C76" s="121"/>
+      <c r="D76" s="122"/>
+      <c r="E76" s="122"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="123"/>
+    </row>
+    <row r="77" spans="1:13" ht="43.2">
+      <c r="A77" s="118">
         <v>4</v>
       </c>
-      <c r="B77" s="150" t="s">
+      <c r="B77" s="124" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="72">
-      <c r="A78" s="144">
+    <row r="78" spans="1:13" ht="43.2">
+      <c r="A78" s="118">
         <v>5</v>
       </c>
-      <c r="B78" s="150" t="s">
+      <c r="B78" s="124" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="72">
-      <c r="A79" s="144">
+    <row r="79" spans="1:13" ht="43.2">
+      <c r="A79" s="118">
         <v>6</v>
       </c>
-      <c r="B79" s="150" t="s">
+      <c r="B79" s="124" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="86.4">
-      <c r="A80" s="144">
+    <row r="80" spans="1:13" ht="43.2">
+      <c r="A80" s="118">
         <v>7</v>
       </c>
-      <c r="B80" s="150" t="s">
+      <c r="B80" s="124" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="86.4">
-      <c r="A81" s="144">
+    <row r="81" spans="1:2" ht="43.2">
+      <c r="A81" s="118">
         <v>8</v>
       </c>
-      <c r="B81" s="150" t="s">
+      <c r="B81" s="124" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="100.8">
-      <c r="A82" s="144">
+    <row r="82" spans="1:2" ht="43.2">
+      <c r="A82" s="118">
         <v>9</v>
       </c>
-      <c r="B82" s="150" t="s">
+      <c r="B82" s="124" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="115.2">
-      <c r="A83" s="144">
+    <row r="83" spans="1:2" ht="43.2">
+      <c r="A83" s="118">
         <v>10</v>
       </c>
-      <c r="B83" s="150" t="s">
+      <c r="B83" s="124" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="86.4">
-      <c r="A84" s="144">
+    <row r="84" spans="1:2" ht="28.8">
+      <c r="A84" s="118">
         <v>11</v>
       </c>
-      <c r="B84" s="150" t="s">
+      <c r="B84" s="124" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="72">
-      <c r="A85" s="144">
+    <row r="85" spans="1:2" ht="28.8">
+      <c r="A85" s="118">
         <v>12</v>
       </c>
-      <c r="B85" s="150" t="s">
+      <c r="B85" s="124" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="86.4">
-      <c r="A86" s="151">
+    <row r="86" spans="1:2" ht="28.8">
+      <c r="A86" s="125">
         <v>13</v>
       </c>
-      <c r="B86" s="152" t="s">
+      <c r="B86" s="126" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="153"/>
-      <c r="B87" s="145"/>
+      <c r="A87" s="127"/>
+      <c r="B87" s="119"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="153"/>
-      <c r="B88" s="145"/>
+      <c r="A88" s="127"/>
+      <c r="B88" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/lab-1/SEE-lab-1.xlsx
+++ b/lab-1/SEE-lab-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="204">
   <si>
     <t>N</t>
   </si>
@@ -629,21 +629,6 @@
   </si>
   <si>
     <t>Изменения цветовой темы интерфейса</t>
-  </si>
-  <si>
-    <t>Меню основное на главной странице</t>
-  </si>
-  <si>
-    <t>Кнопка подъём в начало на главной странице</t>
-  </si>
-  <si>
-    <t>Карточки коллекций на главной странице</t>
-  </si>
-  <si>
-    <t>Карточки образов на главной странице</t>
-  </si>
-  <si>
-    <t>Картчока товара образов на главной странице</t>
   </si>
 </sst>
 </file>
@@ -651,7 +636,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1425,6 +1410,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1456,12 +1462,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
@@ -1490,10 +1517,28 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1513,9 +1558,27 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1579,100 +1642,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1819,6 +1832,15 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1834,56 +1856,19 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D22" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:D22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:D22"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="N" dataDxfId="3"/>
-    <tableColumn id="2" name="Функционал" dataDxfId="2"/>
-    <tableColumn id="3" name="Оценка мин./чел.час" dataDxfId="1"/>
-    <tableColumn id="4" name="Оценка макс./чел.час" dataDxfId="0"/>
+    <tableColumn id="1" name="N" dataDxfId="4"/>
+    <tableColumn id="2" name="Функционал" dataDxfId="3"/>
+    <tableColumn id="3" name="Оценка мин./чел.час" dataDxfId="2"/>
+    <tableColumn id="4" name="Оценка макс./чел.час" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2176,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2207,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -2221,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>0.5</v>
@@ -2277,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>0.5</v>
@@ -2305,7 +2290,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8">
         <v>0.3</v>
@@ -2319,7 +2304,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -2333,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -2665,15 +2650,15 @@
         <v>3</v>
       </c>
       <c r="L2" s="25">
-        <f t="shared" ref="L2:N3" si="0">H2</f>
+        <f>H2</f>
         <v>2.1666666666666665</v>
       </c>
       <c r="M2" s="25">
-        <f t="shared" si="0"/>
+        <f>I2</f>
         <v>0.5</v>
       </c>
       <c r="N2" s="25">
-        <f t="shared" si="0"/>
+        <f>J2</f>
         <v>0.25</v>
       </c>
     </row>
@@ -2700,15 +2685,15 @@
         <v>2</v>
       </c>
       <c r="H3" s="25">
-        <f t="shared" ref="H3:H22" si="1">(G3+4*E3+F3)/6</f>
+        <f t="shared" ref="H3:H22" si="0">(G3+4*E3+F3)/6</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="I3" s="25">
-        <f t="shared" ref="I3:I22" si="2">(G3-F3)/6</f>
+        <f t="shared" ref="I3:I22" si="1">(G3-F3)/6</f>
         <v>0.25</v>
       </c>
       <c r="J3" s="25">
-        <f t="shared" ref="J3:J22" si="3">I3*I3</f>
+        <f t="shared" ref="J3:J22" si="2">I3*I3</f>
         <v>6.25E-2</v>
       </c>
       <c r="K3">
@@ -2716,15 +2701,15 @@
         <v>1</v>
       </c>
       <c r="L3" s="25">
-        <f t="shared" si="0"/>
+        <f>H3</f>
         <v>1.0833333333333333</v>
       </c>
       <c r="M3" s="25">
-        <f t="shared" si="0"/>
+        <f>I3</f>
         <v>0.25</v>
       </c>
       <c r="N3" s="25">
-        <f t="shared" si="0"/>
+        <f>J3</f>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -2751,15 +2736,15 @@
         <v>2</v>
       </c>
       <c r="H4" s="25">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="I4" s="25">
         <f t="shared" si="1"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="I4" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="25">
         <f t="shared" si="2"/>
-        <v>0.25</v>
-      </c>
-      <c r="J4" s="25">
-        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -2786,15 +2771,15 @@
         <v>4</v>
       </c>
       <c r="H5" s="25">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="I5" s="25">
         <f t="shared" si="1"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="I5" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="25">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="25">
-        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2823,15 +2808,15 @@
         <v>6</v>
       </c>
       <c r="H6" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I6" s="25">
         <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I6" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J6" s="25">
         <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J6" s="25">
-        <f t="shared" si="3"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -2849,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E22" si="4">D7*1.5</f>
+        <f t="shared" ref="E7:E22" si="3">D7*1.5</f>
         <v>1.5</v>
       </c>
       <c r="F7">
@@ -2857,19 +2842,19 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G22" si="5">E7*2</f>
+        <f t="shared" ref="G7:G22" si="4">E7*2</f>
         <v>3</v>
       </c>
       <c r="H7" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I7" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J7" s="25">
         <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J7" s="25">
-        <f t="shared" si="3"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -2887,27 +2872,27 @@
         <v>1</v>
       </c>
       <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F22" si="5">C8</f>
+        <v>0.5</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F22" si="6">C8</f>
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I8" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J8" s="25">
         <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="3"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -2925,27 +2910,27 @@
         <v>1</v>
       </c>
       <c r="E9">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="I9" s="25">
         <f t="shared" si="1"/>
-        <v>1.55</v>
-      </c>
-      <c r="I9" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="J9" s="25">
         <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="3"/>
         <v>0.20250000000000001</v>
       </c>
     </row>
@@ -2963,27 +2948,27 @@
         <v>2</v>
       </c>
       <c r="E10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I10" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J10" s="25">
         <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="3"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3001,27 +2986,27 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I11" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J11" s="25">
         <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="3"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3039,27 +3024,27 @@
         <v>1</v>
       </c>
       <c r="E12">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I12" s="25">
         <f t="shared" si="1"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I12" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J12" s="25">
         <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J12" s="25">
-        <f t="shared" si="3"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -3077,27 +3062,27 @@
         <v>2</v>
       </c>
       <c r="E13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I13" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J13" s="25">
         <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" si="3"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3115,27 +3100,27 @@
         <v>2</v>
       </c>
       <c r="E14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I14" s="25">
         <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="I14" s="25">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J14" s="25">
         <f t="shared" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="3"/>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3153,27 +3138,27 @@
         <v>1</v>
       </c>
       <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="I15" s="25">
         <f t="shared" si="1"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="I15" s="25">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J15" s="25">
         <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" si="3"/>
         <v>0.17361111111111113</v>
       </c>
     </row>
@@ -3191,27 +3176,27 @@
         <v>3</v>
       </c>
       <c r="E16">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="4"/>
-        <v>4.5</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="H16" s="25">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="I16" s="25">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="I16" s="25">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J16" s="25">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" si="3"/>
         <v>1.7777777777777777</v>
       </c>
     </row>
@@ -3229,27 +3214,27 @@
         <v>5</v>
       </c>
       <c r="E17">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I17" s="25">
+        <v>2</v>
+      </c>
+      <c r="J17" s="25">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K17">
@@ -3257,15 +3242,15 @@
         <v>5</v>
       </c>
       <c r="L17" s="25">
-        <f t="shared" ref="L17:N22" si="7">H17</f>
+        <f>H17</f>
         <v>8</v>
       </c>
       <c r="M17" s="25">
-        <f t="shared" si="7"/>
+        <f>I17</f>
         <v>2</v>
       </c>
       <c r="N17" s="25">
-        <f t="shared" si="7"/>
+        <f>J17</f>
         <v>4</v>
       </c>
     </row>
@@ -3283,43 +3268,43 @@
         <v>4</v>
       </c>
       <c r="E18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H18" s="25">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I18" s="25">
         <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:L22" si="6">D18</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="25">
+        <f>H18</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="I18" s="25">
-        <f t="shared" si="2"/>
+      <c r="M18" s="25">
+        <f>I18</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J18" s="25">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777781</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K22" si="8">D18</f>
-        <v>4</v>
-      </c>
-      <c r="L18" s="25">
-        <f t="shared" si="7"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="M18" s="25">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
       <c r="N18" s="25">
-        <f t="shared" si="7"/>
+        <f>J18</f>
         <v>2.7777777777777781</v>
       </c>
     </row>
@@ -3337,43 +3322,43 @@
         <v>8</v>
       </c>
       <c r="E19">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="F19">
+        <v>24</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>12.666666666666666</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="2"/>
+        <v>11.111111111111112</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="H19" s="25">
-        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L19" s="25">
+        <f>H19</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="I19" s="25">
-        <f t="shared" si="2"/>
+      <c r="M19" s="25">
+        <f>I19</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="J19" s="25">
-        <f t="shared" si="3"/>
-        <v>11.111111111111112</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" si="7"/>
-        <v>12.666666666666666</v>
-      </c>
-      <c r="M19" s="25">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333335</v>
-      </c>
       <c r="N19" s="25">
-        <f t="shared" si="7"/>
+        <f>J19</f>
         <v>11.111111111111112</v>
       </c>
     </row>
@@ -3391,27 +3376,27 @@
         <v>16</v>
       </c>
       <c r="E20">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="H20" s="25">
+        <f t="shared" si="0"/>
+        <v>25.333333333333332</v>
+      </c>
+      <c r="I20" s="25">
         <f t="shared" si="1"/>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="I20" s="25">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="3"/>
         <v>44.44444444444445</v>
       </c>
       <c r="K20">
@@ -3419,15 +3404,15 @@
         <v>16</v>
       </c>
       <c r="L20" s="25">
-        <f t="shared" si="7"/>
+        <f>H20</f>
         <v>25.333333333333332</v>
       </c>
       <c r="M20" s="25">
-        <f t="shared" si="7"/>
+        <f>I20</f>
         <v>6.666666666666667</v>
       </c>
       <c r="N20" s="25">
-        <f t="shared" si="7"/>
+        <f>J20</f>
         <v>44.44444444444445</v>
       </c>
     </row>
@@ -3445,43 +3430,43 @@
         <v>4</v>
       </c>
       <c r="E21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="0"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L21" s="25">
+        <f>H21</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="I21" s="25">
-        <f t="shared" si="2"/>
+      <c r="M21" s="25">
+        <f>I21</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="J21" s="25">
-        <f t="shared" si="3"/>
-        <v>2.7777777777777781</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="7"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="M21" s="25">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
-      </c>
       <c r="N21" s="25">
-        <f t="shared" si="7"/>
+        <f>J21</f>
         <v>2.7777777777777781</v>
       </c>
     </row>
@@ -3499,43 +3484,43 @@
         <v>2</v>
       </c>
       <c r="E22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="I22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J22" s="25">
+        <f t="shared" si="2"/>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="25">
-        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L22" s="25">
+        <f>H22</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="I22" s="25">
-        <f t="shared" si="2"/>
+      <c r="M22" s="25">
+        <f>I22</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J22" s="25">
-        <f t="shared" si="3"/>
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="25">
-        <f t="shared" si="7"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="M22" s="25">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
       <c r="N22" s="25">
-        <f t="shared" si="7"/>
+        <f>J22</f>
         <v>0.69444444444444453</v>
       </c>
     </row>
@@ -3556,28 +3541,28 @@
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
-        <f t="shared" ref="H23" si="9">SUM(H2:H22)</f>
+        <f t="shared" ref="E23:H23" si="7">SUM(H2:H22)</f>
         <v>96.716666666666669</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="27">
-        <f t="shared" ref="J23:N23" si="10">SUM(J2:J22)</f>
+        <f t="shared" ref="J23:N23" si="8">SUM(J2:J22)</f>
         <v>72.577500000000001</v>
       </c>
       <c r="K23" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="L23" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>65.083333333333329</v>
       </c>
       <c r="M23" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16.916666666666668</v>
       </c>
       <c r="N23" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>66.118055555555557</v>
       </c>
     </row>
@@ -3733,61 +3718,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="153"/>
+      <c r="G1" s="53"/>
       <c r="I1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="54" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.6">
-      <c r="A2" s="153"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="54" t="s">
         <v>62</v>
       </c>
       <c r="I2" s="17">
@@ -3813,25 +3798,25 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.6">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="55">
         <v>3</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>4</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="55">
         <v>5</v>
       </c>
       <c r="I3" s="18">
@@ -3857,25 +3842,25 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="31.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="55">
         <v>4</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="55">
         <v>5</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="55">
         <v>7</v>
       </c>
       <c r="I4" s="17">
@@ -3901,113 +3886,113 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="31.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="55">
         <v>3</v>
       </c>
-      <c r="D5" s="48">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48">
+      <c r="D5" s="55">
+        <v>1</v>
+      </c>
+      <c r="E5" s="55">
         <v>4</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="55">
         <v>6</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="59">
         <v>4</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="51">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51" t="s">
+      <c r="K5" s="58">
+        <v>1</v>
+      </c>
+      <c r="L5" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="51">
-        <v>1</v>
-      </c>
-      <c r="N5" s="51">
-        <v>1</v>
-      </c>
-      <c r="O5" s="51" t="s">
+      <c r="M5" s="58">
+        <v>1</v>
+      </c>
+      <c r="N5" s="58">
+        <v>1</v>
+      </c>
+      <c r="O5" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="31.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="55">
         <v>7</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="55">
         <v>19</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="55">
         <v>10</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="55">
         <v>15</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="56">
         <v>5</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="51">
-        <v>1</v>
-      </c>
-      <c r="L6" s="51" t="s">
+      <c r="K6" s="58">
+        <v>1</v>
+      </c>
+      <c r="L6" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="51">
-        <v>1</v>
-      </c>
-      <c r="N6" s="51">
-        <v>1</v>
-      </c>
-      <c r="O6" s="51" t="s">
+      <c r="M6" s="58">
+        <v>1</v>
+      </c>
+      <c r="N6" s="58">
+        <v>1</v>
+      </c>
+      <c r="O6" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="31.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="55">
         <v>5</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="55">
         <v>20</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="55">
         <v>7</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="55">
         <v>10</v>
       </c>
       <c r="I7" s="18">
@@ -4033,224 +4018,224 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="31.2">
-      <c r="I8" s="49">
+      <c r="I8" s="56">
         <v>7</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="51">
-        <v>1</v>
-      </c>
-      <c r="L8" s="51" t="s">
+      <c r="K8" s="58">
+        <v>1</v>
+      </c>
+      <c r="L8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="51">
-        <v>1</v>
-      </c>
-      <c r="N8" s="51">
-        <v>1</v>
-      </c>
-      <c r="O8" s="51" t="s">
+      <c r="M8" s="58">
+        <v>1</v>
+      </c>
+      <c r="N8" s="58">
+        <v>1</v>
+      </c>
+      <c r="O8" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="31.2">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="I9" s="52">
+      <c r="G9" s="53"/>
+      <c r="I9" s="59">
         <v>8</v>
       </c>
-      <c r="J9" s="53" t="s">
+      <c r="J9" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="51">
-        <v>1</v>
-      </c>
-      <c r="L9" s="51" t="s">
+      <c r="K9" s="58">
+        <v>1</v>
+      </c>
+      <c r="L9" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="51">
-        <v>1</v>
-      </c>
-      <c r="N9" s="51">
-        <v>1</v>
-      </c>
-      <c r="O9" s="51" t="s">
+      <c r="M9" s="58">
+        <v>1</v>
+      </c>
+      <c r="N9" s="58">
+        <v>1</v>
+      </c>
+      <c r="O9" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.2">
-      <c r="A10" s="153"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="56">
         <v>9</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="51">
-        <v>1</v>
-      </c>
-      <c r="L10" s="51" t="s">
+      <c r="K10" s="58">
+        <v>1</v>
+      </c>
+      <c r="L10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="51">
-        <v>1</v>
-      </c>
-      <c r="N10" s="51">
-        <v>1</v>
-      </c>
-      <c r="O10" s="51" t="s">
+      <c r="M10" s="58">
+        <v>1</v>
+      </c>
+      <c r="N10" s="58">
+        <v>1</v>
+      </c>
+      <c r="O10" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="31.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="55">
         <v>4</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="55">
         <v>3</v>
       </c>
-      <c r="D11" s="48">
-        <v>1</v>
-      </c>
-      <c r="E11" s="48">
+      <c r="D11" s="55">
+        <v>1</v>
+      </c>
+      <c r="E11" s="55">
         <v>4</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="55">
         <v>0</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="55">
         <v>5</v>
       </c>
       <c r="H11">
         <f>B11*C11+D11*E11+F11*G11</f>
         <v>16</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="59">
         <v>10</v>
       </c>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="51">
-        <v>1</v>
-      </c>
-      <c r="L11" s="51" t="s">
+      <c r="K11" s="58">
+        <v>1</v>
+      </c>
+      <c r="L11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="51">
-        <v>1</v>
-      </c>
-      <c r="N11" s="51">
-        <v>1</v>
-      </c>
-      <c r="O11" s="51" t="s">
+      <c r="M11" s="58">
+        <v>1</v>
+      </c>
+      <c r="N11" s="58">
+        <v>1</v>
+      </c>
+      <c r="O11" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="31.2">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="55">
         <v>4</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="55">
         <v>4</v>
       </c>
-      <c r="D12" s="48">
-        <v>1</v>
-      </c>
-      <c r="E12" s="48">
+      <c r="D12" s="55">
+        <v>1</v>
+      </c>
+      <c r="E12" s="55">
         <v>5</v>
       </c>
-      <c r="F12" s="48">
-        <v>1</v>
-      </c>
-      <c r="G12" s="48">
+      <c r="F12" s="55">
+        <v>1</v>
+      </c>
+      <c r="G12" s="55">
         <v>7</v>
       </c>
       <c r="H12">
         <f t="shared" ref="H12:H15" si="0">B12*C12+D12*E12+F12*G12</f>
         <v>28</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="56">
         <v>11</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="51">
-        <v>1</v>
-      </c>
-      <c r="L12" s="51" t="s">
+      <c r="K12" s="58">
+        <v>1</v>
+      </c>
+      <c r="L12" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="51">
-        <v>1</v>
-      </c>
-      <c r="N12" s="51">
-        <v>1</v>
-      </c>
-      <c r="O12" s="51" t="s">
+      <c r="M12" s="58">
+        <v>1</v>
+      </c>
+      <c r="N12" s="58">
+        <v>1</v>
+      </c>
+      <c r="O12" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="55">
         <v>3</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="55">
         <v>3</v>
       </c>
-      <c r="D13" s="48">
-        <v>1</v>
-      </c>
-      <c r="E13" s="48">
+      <c r="D13" s="55">
+        <v>1</v>
+      </c>
+      <c r="E13" s="55">
         <v>4</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="55">
         <v>2</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="55">
         <v>6</v>
       </c>
       <c r="H13">
@@ -4280,98 +4265,98 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.2">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="55">
         <v>7</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="55">
         <v>7</v>
       </c>
-      <c r="D14" s="48">
-        <v>1</v>
-      </c>
-      <c r="E14" s="48">
+      <c r="D14" s="55">
+        <v>1</v>
+      </c>
+      <c r="E14" s="55">
         <v>10</v>
       </c>
-      <c r="F14" s="48">
-        <v>1</v>
-      </c>
-      <c r="G14" s="48">
+      <c r="F14" s="55">
+        <v>1</v>
+      </c>
+      <c r="G14" s="55">
         <v>15</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="56">
         <v>13</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="51">
-        <v>1</v>
-      </c>
-      <c r="L14" s="51" t="s">
+      <c r="K14" s="58">
+        <v>1</v>
+      </c>
+      <c r="L14" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M14" s="51">
-        <v>1</v>
-      </c>
-      <c r="N14" s="51">
-        <v>1</v>
-      </c>
-      <c r="O14" s="51" t="s">
+      <c r="M14" s="58">
+        <v>1</v>
+      </c>
+      <c r="N14" s="58">
+        <v>1</v>
+      </c>
+      <c r="O14" s="58" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="48">
-        <v>1</v>
-      </c>
-      <c r="C15" s="48">
+      <c r="B15" s="55">
+        <v>1</v>
+      </c>
+      <c r="C15" s="55">
         <v>5</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="55">
         <v>2</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="55">
         <v>7</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="55">
         <v>0</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="55">
         <v>10</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="59">
         <v>14</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="58">
         <v>2</v>
       </c>
-      <c r="L15" s="51" t="s">
+      <c r="L15" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="58">
         <v>2</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="58">
         <v>2</v>
       </c>
-      <c r="O15" s="51" t="s">
+      <c r="O15" s="58" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4446,25 +4431,25 @@
         <f>H16*H17</f>
         <v>124.74000000000001</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="56">
         <v>17</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="51">
-        <v>1</v>
-      </c>
-      <c r="L18" s="51" t="s">
+      <c r="K18" s="58">
+        <v>1</v>
+      </c>
+      <c r="L18" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="51">
-        <v>1</v>
-      </c>
-      <c r="N18" s="51">
-        <v>1</v>
-      </c>
-      <c r="O18" s="51" t="s">
+      <c r="M18" s="58">
+        <v>1</v>
+      </c>
+      <c r="N18" s="58">
+        <v>1</v>
+      </c>
+      <c r="O18" s="58" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4578,14 +4563,14 @@
       <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="I24" s="142" t="s">
+      <c r="I24" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="143"/>
-      <c r="L24" s="142" t="s">
+      <c r="J24" s="76"/>
+      <c r="L24" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="M24" s="143"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="1:15" ht="15.6">
       <c r="A25" s="36" t="s">
@@ -4594,16 +4579,16 @@
       <c r="B25" s="37">
         <v>1</v>
       </c>
-      <c r="I25" s="63" t="s">
+      <c r="I25" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="64">
+      <c r="J25" s="78">
         <v>1.24</v>
       </c>
-      <c r="L25" s="63" t="s">
+      <c r="L25" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="M25" s="64">
+      <c r="M25" s="78">
         <v>1</v>
       </c>
     </row>
@@ -4614,16 +4599,16 @@
       <c r="B26" s="37">
         <v>1</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="64">
+      <c r="J26" s="78">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L26" s="63" t="s">
+      <c r="L26" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="M26" s="64">
+      <c r="M26" s="78">
         <v>0.87</v>
       </c>
     </row>
@@ -4634,16 +4619,16 @@
       <c r="B27" s="37">
         <v>0</v>
       </c>
-      <c r="I27" s="63" t="s">
+      <c r="I27" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="78">
         <v>7.07</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="64">
+      <c r="M27" s="78">
         <v>0.6</v>
       </c>
     </row>
@@ -4654,16 +4639,16 @@
       <c r="B28" s="37">
         <v>0</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="J28" s="64">
+      <c r="J28" s="78">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L28" s="63" t="s">
+      <c r="L28" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="64">
+      <c r="M28" s="78">
         <v>0.95</v>
       </c>
     </row>
@@ -4674,16 +4659,16 @@
       <c r="B29" s="37">
         <v>2</v>
       </c>
-      <c r="I29" s="65" t="s">
+      <c r="I29" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="80">
         <v>6.24</v>
       </c>
-      <c r="L29" s="63" t="s">
+      <c r="L29" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="64">
+      <c r="M29" s="78">
         <v>1</v>
       </c>
     </row>
@@ -4694,10 +4679,10 @@
       <c r="B30" s="37">
         <v>1</v>
       </c>
-      <c r="L30" s="63" t="s">
+      <c r="L30" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="78">
         <v>0.73</v>
       </c>
     </row>
@@ -4708,13 +4693,13 @@
       <c r="B31" s="37">
         <v>1</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69" t="s">
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="80">
         <v>1</v>
       </c>
     </row>
@@ -4729,91 +4714,91 @@
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1"/>
     <row r="34" spans="1:11" ht="15.6">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="63">
         <v>104.88</v>
       </c>
-      <c r="E34" s="140" t="s">
+      <c r="E34" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="141"/>
-      <c r="G34" s="60">
+      <c r="F34" s="72"/>
+      <c r="G34" s="69">
         <f>H18</f>
         <v>124.74000000000001</v>
       </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="70" t="s">
+      <c r="I34" s="73"/>
+      <c r="J34" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="71">
+      <c r="K34" s="85">
         <f>SUM(J25:J29)*0.01 + 0.91</f>
         <v>1.0868</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6">
-      <c r="A35" s="144" t="s">
+      <c r="A35" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="145"/>
-      <c r="C35" s="57">
+      <c r="B35" s="68"/>
+      <c r="C35" s="64">
         <v>47</v>
       </c>
-      <c r="E35" s="152" t="s">
+      <c r="E35" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="152"/>
-      <c r="G35" s="60">
+      <c r="F35" s="70"/>
+      <c r="G35" s="69">
         <v>47</v>
       </c>
-      <c r="I35" s="61"/>
-      <c r="J35" s="70" t="s">
+      <c r="I35" s="73"/>
+      <c r="J35" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="K35" s="71">
+      <c r="K35" s="85">
         <f>PRODUCT(M25:M31) * POWER(G36,K34) * 2.94</f>
         <v>7.275105384785661</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A36" s="58"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="66">
         <v>4.92936</v>
       </c>
-      <c r="E36" s="140" t="s">
+      <c r="E36" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="141"/>
-      <c r="G36" s="60">
+      <c r="F36" s="72"/>
+      <c r="G36" s="69">
         <f>(G34*G35)/1000</f>
         <v>5.8627800000000008</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1"/>
     <row r="38" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A38" s="146" t="s">
+      <c r="A38" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="150" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150" t="s">
+      <c r="E38" s="51"/>
+      <c r="F38" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="151"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A39" s="147"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="34" t="s">
         <v>61</v>
       </c>
@@ -4984,14 +4969,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="L24:M24"/>
@@ -5002,6 +4979,14 @@
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -5026,7 +5011,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="158" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="12"/>
@@ -5034,7 +5019,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="86" t="s">
         <v>118</v>
       </c>
       <c r="H1" s="40"/>
@@ -5042,39 +5027,39 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="73"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="133" t="s">
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="133" t="s">
+      <c r="I2" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="133" t="s">
+      <c r="J2" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="160" t="s">
         <v>125</v>
       </c>
       <c r="B3" s="12">
@@ -5083,33 +5068,33 @@
       <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88">
         <f>C3*B3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="12" t="s">
         <v>126</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="135">
+      <c r="I3" s="161">
         <v>2</v>
       </c>
-      <c r="J3" s="136">
+      <c r="J3" s="162">
         <v>0</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74">
+      <c r="K3" s="88"/>
+      <c r="L3" s="88">
         <f>J3*I3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="75"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="160" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="12">
@@ -5118,33 +5103,33 @@
       <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74">
+      <c r="D4" s="88"/>
+      <c r="E4" s="88">
         <f t="shared" ref="E4:E14" si="0">C4*B4</f>
         <v>2</v>
       </c>
-      <c r="F4" s="74"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="12" t="s">
         <v>129</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="135">
-        <v>1</v>
-      </c>
-      <c r="J4" s="136">
+      <c r="I4" s="161">
+        <v>1</v>
+      </c>
+      <c r="J4" s="162">
         <v>3</v>
       </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74">
+      <c r="K4" s="88"/>
+      <c r="L4" s="88">
         <f t="shared" ref="L4:L30" si="1">J4*I4</f>
         <v>3</v>
       </c>
-      <c r="M4" s="75"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="160" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="12">
@@ -5153,202 +5138,202 @@
       <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="12" t="s">
         <v>132</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="135">
-        <v>1</v>
-      </c>
-      <c r="J5" s="136">
+      <c r="I5" s="161">
+        <v>1</v>
+      </c>
+      <c r="J5" s="162">
         <v>5</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74">
+      <c r="K5" s="88"/>
+      <c r="L5" s="88">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M5" s="75"/>
+      <c r="M5" s="89"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="35"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="135">
-        <v>1</v>
-      </c>
-      <c r="J6" s="136">
+      <c r="I6" s="161">
+        <v>1</v>
+      </c>
+      <c r="J6" s="162">
         <v>0</v>
       </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74">
+      <c r="K6" s="88"/>
+      <c r="L6" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M6" s="75"/>
+      <c r="M6" s="89"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="91">
         <f>SUM(E3:E5)</f>
         <v>10</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
       <c r="G7" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="135">
-        <v>1</v>
-      </c>
-      <c r="J7" s="136">
+      <c r="I7" s="161">
+        <v>1</v>
+      </c>
+      <c r="J7" s="162">
         <v>0</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74">
+      <c r="K7" s="88"/>
+      <c r="L7" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="75"/>
+      <c r="M7" s="89"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="35"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
       <c r="G8" s="12" t="s">
         <v>139</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="135">
+      <c r="I8" s="161">
         <v>0.5</v>
       </c>
-      <c r="J8" s="136">
-        <v>1</v>
-      </c>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74">
+      <c r="J8" s="162">
+        <v>1</v>
+      </c>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M8" s="75"/>
+      <c r="M8" s="89"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="35"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="12" t="s">
         <v>141</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="135">
+      <c r="I9" s="161">
         <v>0.5</v>
       </c>
-      <c r="J9" s="136">
+      <c r="J9" s="162">
         <v>5</v>
       </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74">
+      <c r="K9" s="88"/>
+      <c r="L9" s="88">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="M9" s="75"/>
+      <c r="M9" s="89"/>
     </row>
     <row r="10" spans="1:13" ht="18">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="12" t="s">
         <v>144</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="135">
+      <c r="I10" s="161">
         <v>2</v>
       </c>
-      <c r="J10" s="136">
+      <c r="J10" s="162">
         <v>2</v>
       </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74">
+      <c r="K10" s="88"/>
+      <c r="L10" s="88">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M10" s="75"/>
+      <c r="M10" s="89"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
       <c r="G11" s="12" t="s">
         <v>147</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="135">
-        <v>1</v>
-      </c>
-      <c r="J11" s="136">
+      <c r="I11" s="161">
+        <v>1</v>
+      </c>
+      <c r="J11" s="162">
         <v>2</v>
       </c>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74">
+      <c r="K11" s="88"/>
+      <c r="L11" s="88">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M11" s="75"/>
+      <c r="M11" s="89"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="160" t="s">
         <v>149</v>
       </c>
       <c r="B12" s="12">
@@ -5357,33 +5342,33 @@
       <c r="C12" s="12">
         <v>5</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74">
+      <c r="D12" s="88"/>
+      <c r="E12" s="88">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="F12" s="74"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="12" t="s">
         <v>150</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="135">
-        <v>1</v>
-      </c>
-      <c r="J12" s="136">
-        <v>1</v>
-      </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74">
+      <c r="I12" s="161">
+        <v>1</v>
+      </c>
+      <c r="J12" s="162">
+        <v>1</v>
+      </c>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M12" s="75"/>
+      <c r="M12" s="89"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="160" t="s">
         <v>152</v>
       </c>
       <c r="B13" s="12">
@@ -5392,33 +5377,33 @@
       <c r="C13" s="12">
         <v>10</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74">
+      <c r="D13" s="88"/>
+      <c r="E13" s="88">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F13" s="74"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="12" t="s">
         <v>153</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="135">
-        <v>1</v>
-      </c>
-      <c r="J13" s="136">
-        <v>1</v>
-      </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74">
+      <c r="I13" s="161">
+        <v>1</v>
+      </c>
+      <c r="J13" s="162">
+        <v>1</v>
+      </c>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M13" s="75"/>
+      <c r="M13" s="89"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="160" t="s">
         <v>155</v>
       </c>
       <c r="B14" s="12">
@@ -5427,1505 +5412,1505 @@
       <c r="C14" s="12">
         <v>15</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F14" s="74"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="12" t="s">
         <v>156</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="135">
-        <v>1</v>
-      </c>
-      <c r="J14" s="136">
+      <c r="I14" s="161">
+        <v>1</v>
+      </c>
+      <c r="J14" s="162">
         <v>3</v>
       </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74">
+      <c r="K14" s="88"/>
+      <c r="L14" s="88">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="35"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
       <c r="G15" s="12" t="s">
         <v>158</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="135">
-        <v>1</v>
-      </c>
-      <c r="J15" s="136">
+      <c r="I15" s="161">
+        <v>1</v>
+      </c>
+      <c r="J15" s="162">
         <v>0</v>
       </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74">
+      <c r="K15" s="88"/>
+      <c r="L15" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="75"/>
+      <c r="M15" s="89"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="77">
+      <c r="B16" s="91">
         <f>SUM(E12:E14)</f>
         <v>165</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="75"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="89"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="35"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="79" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="74">
+      <c r="J17" s="88">
         <f>SUM(L3:L15)</f>
         <v>22</v>
       </c>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="75"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="89"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="35"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="79" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="91">
         <f>0.6 +J17/100</f>
         <v>0.82</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="75"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="89"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="35"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="75"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="89"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="35"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
     </row>
     <row r="21" spans="1:13" ht="18">
       <c r="A21" s="35"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="80" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="75"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="89"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="35"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="133" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="159" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="133" t="s">
+      <c r="H22" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="133" t="s">
+      <c r="I22" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="133" t="s">
+      <c r="J22" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="89"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="35"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
       <c r="G23" s="12" t="s">
         <v>165</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="I23" s="137">
+      <c r="I23" s="163">
         <v>1.5</v>
       </c>
       <c r="J23" s="12">
         <v>3</v>
       </c>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74">
+      <c r="K23" s="88"/>
+      <c r="L23" s="88">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="M23" s="75"/>
+      <c r="M23" s="89"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="35"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
       <c r="G24" s="12" t="s">
         <v>167</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I24" s="137">
+      <c r="I24" s="163">
         <v>0.5</v>
       </c>
       <c r="J24" s="12">
         <v>4</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74">
+      <c r="K24" s="88"/>
+      <c r="L24" s="88">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M24" s="75"/>
+      <c r="M24" s="89"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="81"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
       <c r="G25" s="12" t="s">
         <v>169</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="137">
+      <c r="I25" s="163">
         <v>1</v>
       </c>
       <c r="J25" s="12">
         <v>1</v>
       </c>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74">
+      <c r="K25" s="88"/>
+      <c r="L25" s="88">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M25" s="75"/>
+      <c r="M25" s="89"/>
     </row>
     <row r="26" spans="1:13" ht="15.6">
-      <c r="A26" s="154" t="s">
+      <c r="A26" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="84">
+      <c r="B26" s="99"/>
+      <c r="C26" s="100">
         <f>(B7+B16)*J18*J33</f>
         <v>252.55999999999997</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
       <c r="G26" s="12" t="s">
         <v>172</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="I26" s="137">
+      <c r="I26" s="163">
         <v>0.5</v>
       </c>
       <c r="J26" s="12">
         <v>1</v>
       </c>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74">
+      <c r="K26" s="88"/>
+      <c r="L26" s="88">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M26" s="75"/>
+      <c r="M26" s="89"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
       <c r="G27" s="12" t="s">
         <v>174</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="137">
+      <c r="I27" s="163">
         <v>1</v>
       </c>
       <c r="J27" s="12">
         <v>2</v>
       </c>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74">
+      <c r="K27" s="88"/>
+      <c r="L27" s="88">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M27" s="75"/>
+      <c r="M27" s="89"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="35"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I28" s="137">
+      <c r="I28" s="163">
         <v>2</v>
       </c>
       <c r="J28" s="12">
         <v>2</v>
       </c>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74">
+      <c r="K28" s="88"/>
+      <c r="L28" s="88">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M28" s="75"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="35"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="137">
+      <c r="I29" s="163">
         <v>-1</v>
       </c>
       <c r="J29" s="12">
         <v>1</v>
       </c>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74">
+      <c r="K29" s="88"/>
+      <c r="L29" s="88">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M29" s="75"/>
+      <c r="M29" s="89"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="35"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="12" t="s">
         <v>180</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="I30" s="137">
+      <c r="I30" s="163">
         <v>-1</v>
       </c>
       <c r="J30" s="12">
         <v>1</v>
       </c>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74">
+      <c r="K30" s="88"/>
+      <c r="L30" s="88">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="M30" s="75"/>
+      <c r="M30" s="89"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="35"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="75"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="35"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="79" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="93" t="s">
         <v>182</v>
       </c>
-      <c r="J32" s="74">
+      <c r="J32" s="88">
         <f>SUM(L23:L30)</f>
         <v>12</v>
       </c>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="75"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="89"/>
     </row>
     <row r="33" spans="1:13" ht="14.55" customHeight="1">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="157"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="79" t="s">
+      <c r="B33" s="105"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="J33" s="77">
+      <c r="J33" s="91">
         <f>1.4 + (0.03*J32)</f>
         <v>1.7599999999999998</v>
       </c>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="75"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="89"/>
     </row>
     <row r="34" spans="1:13" ht="13.95" customHeight="1" thickBot="1">
-      <c r="A34" s="158"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
       <c r="M34" s="41"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1"/>
     <row r="37" spans="1:13" ht="18">
-      <c r="A37" s="128" t="s">
+      <c r="A37" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="91"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="109"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="111"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="130" t="s">
+      <c r="A38" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="130" t="s">
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="H38" s="130" t="s">
+      <c r="H38" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="130" t="s">
+      <c r="I38" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="J38" s="130" t="s">
+      <c r="J38" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="93"/>
+      <c r="K38" s="112"/>
+      <c r="L38" s="112"/>
+      <c r="M38" s="113"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="131" t="s">
+      <c r="A39" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="129">
-        <v>1</v>
-      </c>
-      <c r="C39" s="129">
-        <v>1</v>
-      </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92">
+      <c r="B39" s="155">
+        <v>1</v>
+      </c>
+      <c r="C39" s="155">
+        <v>1</v>
+      </c>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112">
         <f>B39*C39</f>
         <v>1</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="129" t="s">
+      <c r="F39" s="112"/>
+      <c r="G39" s="155" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="129" t="s">
+      <c r="H39" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="139">
+      <c r="I39" s="165">
         <v>2</v>
       </c>
-      <c r="J39" s="136">
+      <c r="J39" s="162">
         <v>0</v>
       </c>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92">
+      <c r="K39" s="112"/>
+      <c r="L39" s="112">
         <f>J39*I39</f>
         <v>0</v>
       </c>
-      <c r="M39" s="93"/>
+      <c r="M39" s="113"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="131" t="s">
+      <c r="A40" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="129">
+      <c r="B40" s="155">
         <v>0</v>
       </c>
-      <c r="C40" s="129">
+      <c r="C40" s="155">
         <v>2</v>
       </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92">
+      <c r="D40" s="112"/>
+      <c r="E40" s="112">
         <f t="shared" ref="E40:E50" si="2">B40*C40</f>
         <v>0</v>
       </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="129" t="s">
+      <c r="F40" s="112"/>
+      <c r="G40" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="H40" s="129" t="s">
+      <c r="H40" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="139">
-        <v>1</v>
-      </c>
-      <c r="J40" s="136">
-        <v>1</v>
-      </c>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92">
+      <c r="I40" s="165">
+        <v>1</v>
+      </c>
+      <c r="J40" s="162">
+        <v>1</v>
+      </c>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112">
         <f t="shared" ref="L40:L66" si="3">J40*I40</f>
         <v>1</v>
       </c>
-      <c r="M40" s="93"/>
+      <c r="M40" s="113"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="157" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="129">
+      <c r="B41" s="155">
         <v>0</v>
       </c>
-      <c r="C41" s="129">
+      <c r="C41" s="155">
         <v>3</v>
       </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92">
+      <c r="D41" s="112"/>
+      <c r="E41" s="112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F41" s="92"/>
-      <c r="G41" s="129" t="s">
+      <c r="F41" s="112"/>
+      <c r="G41" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="H41" s="129" t="s">
+      <c r="H41" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="I41" s="139">
-        <v>1</v>
-      </c>
-      <c r="J41" s="136">
-        <v>1</v>
-      </c>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92">
+      <c r="I41" s="165">
+        <v>1</v>
+      </c>
+      <c r="J41" s="162">
+        <v>1</v>
+      </c>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M41" s="93"/>
+      <c r="M41" s="113"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="95"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="129" t="s">
+      <c r="A42" s="115"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="H42" s="129" t="s">
+      <c r="H42" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="I42" s="139">
-        <v>1</v>
-      </c>
-      <c r="J42" s="136">
-        <v>1</v>
-      </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92">
+      <c r="I42" s="165">
+        <v>1</v>
+      </c>
+      <c r="J42" s="162">
+        <v>1</v>
+      </c>
+      <c r="K42" s="112"/>
+      <c r="L42" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M42" s="93"/>
+      <c r="M42" s="113"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="96">
+      <c r="B43" s="116">
         <f>SUM(E39:E41)</f>
         <v>1</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="129" t="s">
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="155" t="s">
         <v>137</v>
       </c>
-      <c r="H43" s="129" t="s">
+      <c r="H43" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="I43" s="139">
-        <v>1</v>
-      </c>
-      <c r="J43" s="136">
-        <v>1</v>
-      </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92">
+      <c r="I43" s="165">
+        <v>1</v>
+      </c>
+      <c r="J43" s="162">
+        <v>1</v>
+      </c>
+      <c r="K43" s="112"/>
+      <c r="L43" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M43" s="93"/>
+      <c r="M43" s="113"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="95"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="129" t="s">
+      <c r="A44" s="115"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="H44" s="129" t="s">
+      <c r="H44" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="139">
+      <c r="I44" s="165">
         <v>0.5</v>
       </c>
-      <c r="J44" s="136">
-        <v>1</v>
-      </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92">
+      <c r="J44" s="162">
+        <v>1</v>
+      </c>
+      <c r="K44" s="112"/>
+      <c r="L44" s="112">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M44" s="93"/>
+      <c r="M44" s="113"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="95"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="129" t="s">
+      <c r="A45" s="115"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="155" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="129" t="s">
+      <c r="H45" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="I45" s="139">
+      <c r="I45" s="165">
         <v>0.5</v>
       </c>
-      <c r="J45" s="136">
+      <c r="J45" s="162">
         <v>2</v>
       </c>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92">
+      <c r="K45" s="112"/>
+      <c r="L45" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M45" s="93"/>
+      <c r="M45" s="113"/>
     </row>
     <row r="46" spans="1:13" ht="18">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="129" t="s">
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="H46" s="129" t="s">
+      <c r="H46" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="I46" s="139">
+      <c r="I46" s="165">
         <v>2</v>
       </c>
-      <c r="J46" s="136">
+      <c r="J46" s="162">
         <v>0</v>
       </c>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92">
+      <c r="K46" s="112"/>
+      <c r="L46" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M46" s="93"/>
+      <c r="M46" s="113"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="130" t="s">
+      <c r="A47" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="130" t="s">
+      <c r="C47" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="129" t="s">
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="129" t="s">
+      <c r="H47" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="139">
-        <v>1</v>
-      </c>
-      <c r="J47" s="136">
+      <c r="I47" s="165">
+        <v>1</v>
+      </c>
+      <c r="J47" s="162">
         <v>0</v>
       </c>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92">
+      <c r="K47" s="112"/>
+      <c r="L47" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="93"/>
+      <c r="M47" s="113"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="131" t="s">
+      <c r="A48" s="157" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="129">
+      <c r="B48" s="155">
         <v>9</v>
       </c>
-      <c r="C48" s="129">
+      <c r="C48" s="155">
         <v>5</v>
       </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92">
+      <c r="D48" s="112"/>
+      <c r="E48" s="112">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F48" s="92"/>
-      <c r="G48" s="129" t="s">
+      <c r="F48" s="112"/>
+      <c r="G48" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="H48" s="129" t="s">
+      <c r="H48" s="155" t="s">
         <v>151</v>
       </c>
-      <c r="I48" s="139">
-        <v>1</v>
-      </c>
-      <c r="J48" s="136">
-        <v>1</v>
-      </c>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92">
+      <c r="I48" s="165">
+        <v>1</v>
+      </c>
+      <c r="J48" s="162">
+        <v>1</v>
+      </c>
+      <c r="K48" s="112"/>
+      <c r="L48" s="112">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M48" s="93"/>
+      <c r="M48" s="113"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="129">
+      <c r="B49" s="155">
         <v>2</v>
       </c>
-      <c r="C49" s="129">
+      <c r="C49" s="155">
         <v>10</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92">
+      <c r="D49" s="112"/>
+      <c r="E49" s="112">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F49" s="92"/>
-      <c r="G49" s="129" t="s">
+      <c r="F49" s="112"/>
+      <c r="G49" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="129" t="s">
+      <c r="H49" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="I49" s="139">
-        <v>1</v>
-      </c>
-      <c r="J49" s="136">
+      <c r="I49" s="165">
+        <v>1</v>
+      </c>
+      <c r="J49" s="162">
         <v>0</v>
       </c>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92">
+      <c r="K49" s="112"/>
+      <c r="L49" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M49" s="93"/>
+      <c r="M49" s="113"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="131" t="s">
+      <c r="A50" s="157" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="129">
+      <c r="B50" s="155">
         <v>2</v>
       </c>
-      <c r="C50" s="129">
+      <c r="C50" s="155">
         <v>15</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92">
+      <c r="D50" s="112"/>
+      <c r="E50" s="112">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F50" s="92"/>
-      <c r="G50" s="129" t="s">
+      <c r="F50" s="112"/>
+      <c r="G50" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="129" t="s">
+      <c r="H50" s="155" t="s">
         <v>157</v>
       </c>
-      <c r="I50" s="139">
-        <v>1</v>
-      </c>
-      <c r="J50" s="136">
+      <c r="I50" s="165">
+        <v>1</v>
+      </c>
+      <c r="J50" s="162">
         <v>0</v>
       </c>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92">
+      <c r="K50" s="112"/>
+      <c r="L50" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M50" s="93"/>
+      <c r="M50" s="113"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="95"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="129" t="s">
+      <c r="A51" s="115"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="155" t="s">
         <v>158</v>
       </c>
-      <c r="H51" s="129" t="s">
+      <c r="H51" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="I51" s="139">
-        <v>1</v>
-      </c>
-      <c r="J51" s="136">
+      <c r="I51" s="165">
+        <v>1</v>
+      </c>
+      <c r="J51" s="162">
         <v>0</v>
       </c>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92">
+      <c r="K51" s="112"/>
+      <c r="L51" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M51" s="93"/>
+      <c r="M51" s="113"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="116">
         <f>SUM(E48:E50)</f>
         <v>95</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="93"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
+      <c r="K52" s="112"/>
+      <c r="L52" s="112"/>
+      <c r="M52" s="113"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="95"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="98" t="s">
+      <c r="A53" s="115"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="J53" s="92">
+      <c r="J53" s="112">
         <f>SUM(L39:L51)</f>
         <v>6.5</v>
       </c>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="93"/>
+      <c r="K53" s="112"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="113"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="95"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="98" t="s">
+      <c r="A54" s="115"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="J54" s="77">
+      <c r="J54" s="91">
         <f>0.6 +J53/100</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="93"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
+      <c r="M54" s="113"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="95"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="93"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="113"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="95"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="93"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="113"/>
     </row>
     <row r="57" spans="1:13" ht="18">
-      <c r="A57" s="95"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="99" t="s">
+      <c r="A57" s="115"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="93"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="113"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="95"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="130" t="s">
+      <c r="A58" s="115"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="H58" s="130" t="s">
+      <c r="H58" s="156" t="s">
         <v>123</v>
       </c>
-      <c r="I58" s="130" t="s">
+      <c r="I58" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="J58" s="130" t="s">
+      <c r="J58" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="93"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="112"/>
+      <c r="M58" s="113"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="95"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="129" t="s">
+      <c r="A59" s="115"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="155" t="s">
         <v>165</v>
       </c>
-      <c r="H59" s="129" t="s">
+      <c r="H59" s="155" t="s">
         <v>166</v>
       </c>
-      <c r="I59" s="138">
+      <c r="I59" s="164">
         <v>1.5</v>
       </c>
-      <c r="J59" s="129">
-        <v>1</v>
-      </c>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92">
+      <c r="J59" s="155">
+        <v>1</v>
+      </c>
+      <c r="K59" s="112"/>
+      <c r="L59" s="112">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="M59" s="93"/>
+      <c r="M59" s="113"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="95"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="129" t="s">
+      <c r="A60" s="115"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="H60" s="129" t="s">
+      <c r="H60" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="I60" s="138">
+      <c r="I60" s="164">
         <v>0.5</v>
       </c>
-      <c r="J60" s="129">
-        <v>1</v>
-      </c>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92">
+      <c r="J60" s="155">
+        <v>1</v>
+      </c>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="M60" s="93"/>
+      <c r="M60" s="113"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="100"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="129" t="s">
+      <c r="A61" s="120"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="H61" s="129" t="s">
+      <c r="H61" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="I61" s="138">
-        <v>1</v>
-      </c>
-      <c r="J61" s="129">
+      <c r="I61" s="164">
+        <v>1</v>
+      </c>
+      <c r="J61" s="155">
         <v>0</v>
       </c>
-      <c r="K61" s="92"/>
-      <c r="L61" s="92">
+      <c r="K61" s="112"/>
+      <c r="L61" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M61" s="93"/>
+      <c r="M61" s="113"/>
     </row>
     <row r="62" spans="1:13" ht="15.6">
-      <c r="A62" s="160" t="s">
+      <c r="A62" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="B62" s="161"/>
-      <c r="C62" s="84">
+      <c r="B62" s="124"/>
+      <c r="C62" s="100">
         <f>(B43+B52)*J54*J69</f>
         <v>93.206400000000002</v>
       </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="129" t="s">
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="H62" s="129" t="s">
+      <c r="H62" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="I62" s="138">
+      <c r="I62" s="164">
         <v>0.5</v>
       </c>
-      <c r="J62" s="129">
+      <c r="J62" s="155">
         <v>0</v>
       </c>
-      <c r="K62" s="92"/>
-      <c r="L62" s="92">
+      <c r="K62" s="112"/>
+      <c r="L62" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M62" s="93"/>
+      <c r="M62" s="113"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="103"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="129" t="s">
+      <c r="A63" s="125"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="155" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="129" t="s">
+      <c r="H63" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="I63" s="138">
-        <v>1</v>
-      </c>
-      <c r="J63" s="129">
+      <c r="I63" s="164">
+        <v>1</v>
+      </c>
+      <c r="J63" s="155">
         <v>0</v>
       </c>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92">
+      <c r="K63" s="112"/>
+      <c r="L63" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M63" s="93"/>
+      <c r="M63" s="113"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="95"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="129" t="s">
+      <c r="A64" s="115"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="155" t="s">
         <v>176</v>
       </c>
-      <c r="H64" s="129" t="s">
+      <c r="H64" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I64" s="138">
+      <c r="I64" s="164">
         <v>2</v>
       </c>
-      <c r="J64" s="129">
-        <v>1</v>
-      </c>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92">
+      <c r="J64" s="155">
+        <v>1</v>
+      </c>
+      <c r="K64" s="112"/>
+      <c r="L64" s="112">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M64" s="93"/>
+      <c r="M64" s="113"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="95"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="129" t="s">
+      <c r="A65" s="115"/>
+      <c r="B65" s="112"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="129" t="s">
+      <c r="H65" s="155" t="s">
         <v>179</v>
       </c>
-      <c r="I65" s="138">
+      <c r="I65" s="164">
         <v>-1</v>
       </c>
-      <c r="J65" s="129">
-        <v>1</v>
-      </c>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92">
+      <c r="J65" s="155">
+        <v>1</v>
+      </c>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M65" s="93"/>
+      <c r="M65" s="113"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="95"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="129" t="s">
+      <c r="A66" s="115"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="155" t="s">
         <v>180</v>
       </c>
-      <c r="H66" s="129" t="s">
+      <c r="H66" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="I66" s="138">
+      <c r="I66" s="164">
         <v>-1</v>
       </c>
-      <c r="J66" s="129">
-        <v>1</v>
-      </c>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92">
+      <c r="J66" s="155">
+        <v>1</v>
+      </c>
+      <c r="K66" s="112"/>
+      <c r="L66" s="112">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M66" s="93"/>
+      <c r="M66" s="113"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="95"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="93"/>
+      <c r="A67" s="115"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="112"/>
+      <c r="L67" s="112"/>
+      <c r="M67" s="113"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="95"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="92"/>
-      <c r="I68" s="98" t="s">
+      <c r="A68" s="115"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="118" t="s">
         <v>182</v>
       </c>
-      <c r="J68" s="92">
+      <c r="J68" s="112">
         <f>SUM(L59:L66)</f>
         <v>2</v>
       </c>
-      <c r="K68" s="92"/>
-      <c r="L68" s="92"/>
-      <c r="M68" s="93"/>
+      <c r="K68" s="112"/>
+      <c r="L68" s="112"/>
+      <c r="M68" s="113"/>
     </row>
     <row r="69" spans="1:13" ht="14.4" customHeight="1">
-      <c r="A69" s="162" t="s">
+      <c r="A69" s="128" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="163"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="I69" s="98" t="s">
+      <c r="B69" s="129"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="118" t="s">
         <v>184</v>
       </c>
-      <c r="J69" s="77">
+      <c r="J69" s="91">
         <f>1.4 + (0.03*J68)</f>
         <v>1.46</v>
       </c>
-      <c r="K69" s="92"/>
-      <c r="L69" s="92"/>
-      <c r="M69" s="93"/>
+      <c r="K69" s="112"/>
+      <c r="L69" s="112"/>
+      <c r="M69" s="113"/>
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1" thickBot="1">
-      <c r="A70" s="164"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="107"/>
+      <c r="A70" s="130"/>
+      <c r="B70" s="131"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="132"/>
+      <c r="H70" s="132"/>
+      <c r="I70" s="132"/>
+      <c r="J70" s="132"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="133"/>
     </row>
     <row r="71" spans="1:13" ht="15" thickBot="1"/>
     <row r="72" spans="1:13" ht="18">
-      <c r="A72" s="108" t="s">
+      <c r="A72" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="C72" s="109"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="68"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="110" t="s">
+      <c r="C72" s="135"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="82"/>
+    </row>
+    <row r="73" spans="1:13" ht="28.8">
+      <c r="A73" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="111" t="s">
+      <c r="B73" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="112"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="62" t="s">
+      <c r="C73" s="138"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="113">
+      <c r="G73" s="139">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="28.95" customHeight="1">
-      <c r="A74" s="114">
-        <v>1</v>
-      </c>
-      <c r="B74" s="115" t="s">
+      <c r="A74" s="140">
+        <v>1</v>
+      </c>
+      <c r="B74" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="112"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="116" t="s">
+      <c r="C74" s="138"/>
+      <c r="D74" s="73"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="G74" s="117">
+      <c r="G74" s="143">
         <f>G73/C62</f>
         <v>1.2874652384385621</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.8">
-      <c r="A75" s="118">
+    <row r="75" spans="1:13" ht="43.2">
+      <c r="A75" s="144">
         <v>2</v>
       </c>
-      <c r="B75" s="119" t="s">
+      <c r="B75" s="145" t="s">
         <v>191</v>
       </c>
-      <c r="C75" s="112"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="116" t="s">
+      <c r="C75" s="138"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="G75" s="120">
+      <c r="G75" s="146">
         <f>C26*G74</f>
         <v>325.16222062004323</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="29.4" thickBot="1">
-      <c r="A76" s="118">
+    <row r="76" spans="1:13" ht="58.2" thickBot="1">
+      <c r="A76" s="144">
         <v>3</v>
       </c>
-      <c r="B76" s="119" t="s">
+      <c r="B76" s="145" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="121"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="123"/>
-    </row>
-    <row r="77" spans="1:13" ht="43.2">
-      <c r="A77" s="118">
+      <c r="C76" s="147"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="149"/>
+    </row>
+    <row r="77" spans="1:13" ht="72">
+      <c r="A77" s="144">
         <v>4</v>
       </c>
-      <c r="B77" s="124" t="s">
+      <c r="B77" s="150" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="43.2">
-      <c r="A78" s="118">
+    <row r="78" spans="1:13" ht="72">
+      <c r="A78" s="144">
         <v>5</v>
       </c>
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="150" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="43.2">
-      <c r="A79" s="118">
+    <row r="79" spans="1:13" ht="72">
+      <c r="A79" s="144">
         <v>6</v>
       </c>
-      <c r="B79" s="124" t="s">
+      <c r="B79" s="150" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="43.2">
-      <c r="A80" s="118">
+    <row r="80" spans="1:13" ht="86.4">
+      <c r="A80" s="144">
         <v>7</v>
       </c>
-      <c r="B80" s="124" t="s">
+      <c r="B80" s="150" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="43.2">
-      <c r="A81" s="118">
+    <row r="81" spans="1:2" ht="86.4">
+      <c r="A81" s="144">
         <v>8</v>
       </c>
-      <c r="B81" s="124" t="s">
+      <c r="B81" s="150" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="43.2">
-      <c r="A82" s="118">
+    <row r="82" spans="1:2" ht="100.8">
+      <c r="A82" s="144">
         <v>9</v>
       </c>
-      <c r="B82" s="124" t="s">
+      <c r="B82" s="150" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="43.2">
-      <c r="A83" s="118">
+    <row r="83" spans="1:2" ht="115.2">
+      <c r="A83" s="144">
         <v>10</v>
       </c>
-      <c r="B83" s="124" t="s">
+      <c r="B83" s="150" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="28.8">
-      <c r="A84" s="118">
+    <row r="84" spans="1:2" ht="86.4">
+      <c r="A84" s="144">
         <v>11</v>
       </c>
-      <c r="B84" s="124" t="s">
+      <c r="B84" s="150" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="28.8">
-      <c r="A85" s="118">
+    <row r="85" spans="1:2" ht="72">
+      <c r="A85" s="144">
         <v>12</v>
       </c>
-      <c r="B85" s="124" t="s">
+      <c r="B85" s="150" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="28.8">
-      <c r="A86" s="125">
+    <row r="86" spans="1:2" ht="86.4">
+      <c r="A86" s="151">
         <v>13</v>
       </c>
-      <c r="B86" s="126" t="s">
+      <c r="B86" s="152" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="127"/>
-      <c r="B87" s="119"/>
+      <c r="A87" s="153"/>
+      <c r="B87" s="145"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="127"/>
-      <c r="B88" s="119"/>
+      <c r="A88" s="153"/>
+      <c r="B88" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="4">
